--- a/data/tools.xlsx
+++ b/data/tools.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="860">
   <si>
     <t>ATD</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -9375,6 +9375,9 @@
       <t>记录</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Framework for Automated Combinatorial Test Generation, Execution, and Fault Characterization</t>
   </si>
 </sst>
 </file>
@@ -10121,8 +10124,8 @@
   <dimension ref="A1:BD92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD86"/>
+      <pane ySplit="2" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z68" sqref="Z68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -14185,7 +14188,9 @@
       <c r="Y68" s="72" t="s">
         <v>806</v>
       </c>
-      <c r="Z68" s="52"/>
+      <c r="Z68" s="52" t="s">
+        <v>859</v>
+      </c>
     </row>
     <row r="69" spans="1:31" ht="31" x14ac:dyDescent="0.35">
       <c r="A69" s="24" t="s">

--- a/data/tools.xlsx
+++ b/data/tools.xlsx
@@ -2921,85 +2921,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最早版本可追溯到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1998 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">IPO (PairTest) 2-way </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试工具，已知有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个版本，最新版本</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3.0</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>github</t>
     </r>
     <r>
@@ -3081,50 +3002,6 @@
         <charset val="134"/>
       </rPr>
       <t>版本数目不详</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>github</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>59</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>条</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>commit</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -6277,36 +6154,6 @@
         <rFont val="等线"/>
         <family val="2"/>
       </rPr>
-      <t>总计有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>403</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>条更新记录</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
       <t>一个月以内</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -12138,6 +11985,253 @@
         <charset val="134"/>
       </rPr>
       <t>维</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>59</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>条</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>commit (github</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上最早</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>commit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最早版本可追溯到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1998 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">IPO (PairTest) 2-way </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试工具，已知有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个版本，已知最早版本发布于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年，最新版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>总计有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>403</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>条更新记录，已知最早版本发布于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>年</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -12146,7 +12240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12253,12 +12347,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -12420,7 +12508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -12449,19 +12537,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -12485,16 +12564,13 @@
     <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -12515,19 +12591,28 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12819,24 +12904,24 @@
   <dimension ref="A1:BI89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.58203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.4140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="23" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="19" customWidth="1"/>
     <col min="8" max="8" width="18.4140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.4140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.08203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="17" customWidth="1"/>
+    <col min="12" max="12" width="6" style="14" customWidth="1"/>
     <col min="13" max="13" width="9.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="14.25" style="1" customWidth="1"/>
@@ -12862,33 +12947,33 @@
     <col min="37" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="28" customFormat="1" ht="35" customHeight="1">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:61" s="24" customFormat="1" ht="35" customHeight="1">
+      <c r="A1" s="10"/>
       <c r="B1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="9" t="s">
         <v>70</v>
       </c>
       <c r="K1" s="9"/>
-      <c r="L1" s="27"/>
+      <c r="L1" s="23"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
       <c r="U1" s="8" t="s">
         <v>72</v>
       </c>
@@ -12897,47 +12982,47 @@
       <c r="X1" s="8"/>
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
     </row>
     <row r="2" spans="1:61" s="7" customFormat="1" ht="35" customHeight="1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>82</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="23" t="s">
         <v>466</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>468</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>73</v>
@@ -12945,53 +13030,53 @@
       <c r="N2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="S2" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="T2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="V2" s="8" t="s">
         <v>471</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>473</v>
       </c>
       <c r="W2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>75</v>
       </c>
       <c r="AA2" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="AC2" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="AE2" s="7" t="s">
         <v>92</v>
@@ -13001,7 +13086,7 @@
       </c>
     </row>
     <row r="3" spans="1:61" ht="50" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -13031,8 +13116,8 @@
       <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="17" t="s">
-        <v>480</v>
+      <c r="L3" s="14" t="s">
+        <v>478</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>427</v>
@@ -13041,32 +13126,32 @@
         <v>427</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>411</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:61" ht="50" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="34" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -13091,16 +13176,16 @@
         <v>392</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="17" t="s">
-        <v>480</v>
+      <c r="L4" s="14" t="s">
+        <v>478</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>427</v>
@@ -13109,28 +13194,28 @@
         <v>428</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>260</v>
       </c>
       <c r="T4" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="U4" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="U4" s="32" t="s">
+      <c r="W4" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>413</v>
@@ -13139,7 +13224,7 @@
         <v>419</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>430</v>
@@ -13147,10 +13232,10 @@
       <c r="AB4" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="AC4" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD4" s="32" t="s">
+      <c r="AC4" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="AD4" s="28" t="s">
         <v>234</v>
       </c>
       <c r="AE4" s="1" t="s">
@@ -13159,7 +13244,7 @@
       <c r="AF4" s="1"/>
     </row>
     <row r="5" spans="1:61" ht="50" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="10" t="s">
         <v>356</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -13184,12 +13269,12 @@
         <v>396</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K5" s="1">
         <v>2</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="14" t="s">
         <v>404</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -13199,10 +13284,10 @@
         <v>428</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AE5" s="1" t="s">
         <v>55</v>
@@ -13210,7 +13295,7 @@
       <c r="AF5" s="1"/>
     </row>
     <row r="6" spans="1:61" ht="50" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="34" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -13226,13 +13311,13 @@
         <v>379</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>392</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>379</v>
@@ -13240,7 +13325,7 @@
       <c r="K6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="14" t="s">
         <v>404</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -13249,14 +13334,14 @@
       <c r="N6" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="U6" s="32" t="s">
-        <v>492</v>
+      <c r="U6" s="28" t="s">
+        <v>490</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>413</v>
@@ -13270,7 +13355,7 @@
       <c r="AE6" s="2"/>
     </row>
     <row r="7" spans="1:61" ht="50" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -13292,7 +13377,7 @@
         <v>380</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>396</v>
@@ -13303,8 +13388,8 @@
       <c r="K7" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="L7" s="17" t="s">
-        <v>504</v>
+      <c r="L7" s="14" t="s">
+        <v>502</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>428</v>
@@ -13313,22 +13398,22 @@
         <v>427</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>414</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="AC7" s="32" t="s">
-        <v>508</v>
+        <v>505</v>
+      </c>
+      <c r="AC7" s="28" t="s">
+        <v>506</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>57</v>
@@ -13339,7 +13424,7 @@
       </c>
     </row>
     <row r="8" spans="1:61" ht="50" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -13348,7 +13433,7 @@
       <c r="C8" s="1">
         <v>2002</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
         <v>376</v>
       </c>
@@ -13356,7 +13441,7 @@
         <v>379</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>392</v>
@@ -13365,12 +13450,12 @@
         <v>400</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K8" s="1">
         <v>2</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="14" t="s">
         <v>404</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -13380,22 +13465,22 @@
         <v>428</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="U8" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="U8" s="32" t="s">
+      <c r="W8" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>39</v>
@@ -13404,22 +13489,22 @@
         <v>78</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="AB8" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC8" s="15"/>
+        <v>515</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="AC8" s="12"/>
       <c r="AD8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="10" t="s">
         <v>357</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -13429,7 +13514,7 @@
         <v>2002</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>387</v>
@@ -13444,12 +13529,12 @@
         <v>400</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="15" t="s">
         <v>405</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -13459,26 +13544,26 @@
         <v>428</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>411</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:61" ht="50" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -13487,12 +13572,12 @@
       <c r="C10" s="3">
         <v>2002</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>380</v>
@@ -13501,7 +13586,7 @@
         <v>395</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>402</v>
@@ -13509,8 +13594,8 @@
       <c r="K10" s="1">
         <v>2</v>
       </c>
-      <c r="L10" s="17" t="s">
-        <v>525</v>
+      <c r="L10" s="14" t="s">
+        <v>523</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>428</v>
@@ -13519,31 +13604,31 @@
         <v>428</v>
       </c>
       <c r="S10" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="U10" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AB10" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="U10" s="32" t="s">
-        <v>513</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="AB10" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="32" t="s">
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="28" t="s">
         <v>101</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:61" ht="50" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -13552,32 +13637,29 @@
       <c r="C11" s="1">
         <v>2003</v>
       </c>
-      <c r="D11" s="1">
-        <v>2017</v>
-      </c>
       <c r="E11" s="1" t="s">
         <v>376</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>380</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="K11" s="1">
         <v>2</v>
       </c>
-      <c r="L11" s="17" t="s">
-        <v>525</v>
+      <c r="L11" s="14" t="s">
+        <v>523</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>428</v>
@@ -13586,37 +13668,37 @@
         <v>428</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="U11" s="32" t="s">
-        <v>492</v>
+        <v>532</v>
+      </c>
+      <c r="U11" s="28" t="s">
+        <v>490</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="32" t="s">
-        <v>447</v>
-      </c>
-      <c r="AE11" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="28" t="s">
+        <v>445</v>
+      </c>
+      <c r="AE11" s="28" t="s">
         <v>247</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:61" ht="50" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="34" t="s">
         <v>242</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -13625,7 +13707,7 @@
       <c r="C12" s="1">
         <v>2003</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>2005</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -13641,7 +13723,7 @@
         <v>395</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>402</v>
@@ -13649,8 +13731,8 @@
       <c r="K12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="17" t="s">
-        <v>539</v>
+      <c r="L12" s="14" t="s">
+        <v>537</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>428</v>
@@ -13659,10 +13741,10 @@
         <v>427</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>411</v>
@@ -13671,21 +13753,21 @@
         <v>413</v>
       </c>
       <c r="AB12" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AC12" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="AD12" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="AC12" s="32" t="s">
-        <v>541</v>
-      </c>
-      <c r="AD12" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="2" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:61" ht="50" customHeight="1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="34" t="s">
         <v>339</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -13700,14 +13782,14 @@
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>392</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>379</v>
@@ -13715,8 +13797,8 @@
       <c r="K13" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>544</v>
+      <c r="L13" s="16" t="s">
+        <v>542</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>427</v>
@@ -13725,16 +13807,16 @@
         <v>428</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>422</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AD13" s="2" t="s">
         <v>60</v>
@@ -13742,7 +13824,7 @@
       <c r="AE13" s="2"/>
     </row>
     <row r="14" spans="1:61" ht="50" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="10" t="s">
         <v>188</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -13753,7 +13835,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>13</v>
@@ -13765,16 +13847,16 @@
         <v>394</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>379</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>548</v>
+        <v>545</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>546</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>428</v>
@@ -13789,24 +13871,24 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
-      <c r="AD14" s="32" t="s">
+      <c r="AD14" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="AE14" s="11"/>
+      <c r="AE14" s="10"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
@@ -13839,7 +13921,7 @@
       <c r="BI14" s="3"/>
     </row>
     <row r="15" spans="1:61" ht="50" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="10" t="s">
         <v>368</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -13858,13 +13940,13 @@
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>394</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>379</v>
@@ -13872,8 +13954,8 @@
       <c r="K15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L15" s="17" t="s">
-        <v>552</v>
+      <c r="L15" s="14" t="s">
+        <v>550</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>427</v>
@@ -13882,40 +13964,40 @@
         <v>427</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="U15" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>411</v>
       </c>
       <c r="X15" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD15" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE15" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF15" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="AB15" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="AD15" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE15" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF15" s="2" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:61" ht="50" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="10" t="s">
         <v>367</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -13940,12 +14022,12 @@
         <v>396</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="15" t="s">
         <v>406</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -13955,31 +14037,31 @@
         <v>428</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="W16" s="33" t="s">
-        <v>559</v>
+        <v>512</v>
+      </c>
+      <c r="W16" s="29" t="s">
+        <v>557</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="AD16" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="AD16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AE16" s="11"/>
+      <c r="AE16" s="10"/>
     </row>
     <row r="17" spans="1:61" ht="50" customHeight="1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -13998,7 +14080,7 @@
         <v>251</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>392</v>
@@ -14007,13 +14089,13 @@
         <v>396</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="17" t="s">
-        <v>563</v>
+      <c r="L17" s="14" t="s">
+        <v>561</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>428</v>
@@ -14021,11 +14103,11 @@
       <c r="N17" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="U17" s="32" t="s">
-        <v>492</v>
+      <c r="U17" s="28" t="s">
+        <v>490</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>411</v>
@@ -14039,8 +14121,8 @@
       <c r="AB17" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AC17" s="32" t="s">
-        <v>496</v>
+      <c r="AC17" s="28" t="s">
+        <v>494</v>
       </c>
       <c r="AD17" s="2" t="s">
         <v>46</v>
@@ -14048,7 +14130,7 @@
       <c r="AE17" s="2"/>
     </row>
     <row r="18" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="34" t="s">
         <v>232</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -14070,10 +14152,10 @@
         <v>380</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>402</v>
@@ -14081,7 +14163,7 @@
       <c r="K18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="14" t="s">
         <v>408</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -14093,40 +14175,40 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="32" t="s">
-        <v>513</v>
+      <c r="U18" s="28" t="s">
+        <v>511</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>442</v>
+        <v>820</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="AD18" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="AD18" s="28" t="s">
         <v>89</v>
       </c>
       <c r="AE18" s="1" t="s">
         <v>88</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -14159,7 +14241,7 @@
       <c r="BI18" s="1"/>
     </row>
     <row r="19" spans="1:61" ht="50" customHeight="1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="10" t="s">
         <v>358</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -14181,7 +14263,7 @@
         <v>391</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>403</v>
@@ -14189,8 +14271,8 @@
       <c r="K19" s="1">
         <v>2</v>
       </c>
-      <c r="L19" s="17" t="s">
-        <v>572</v>
+      <c r="L19" s="14" t="s">
+        <v>570</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>428</v>
@@ -14198,24 +14280,24 @@
       <c r="N19" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="U19" s="32" t="s">
+      <c r="U19" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="W19" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="X19" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="W19" s="24" t="s">
-        <v>574</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="AE19" s="11" t="s">
+      <c r="AE19" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:61" ht="50" customHeight="1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="34" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -14237,10 +14319,10 @@
         <v>380</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>403</v>
@@ -14248,7 +14330,7 @@
       <c r="K20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="14" t="s">
         <v>407</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -14260,14 +14342,14 @@
       <c r="S20" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="U20" s="32" t="s">
+      <c r="U20" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="W20" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>413</v>
@@ -14276,15 +14358,15 @@
         <v>86</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>439</v>
+        <v>821</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="AD20" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD20" s="28" t="s">
         <v>90</v>
       </c>
       <c r="AE20" s="1" t="s">
@@ -14292,7 +14374,7 @@
       </c>
     </row>
     <row r="21" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="10" t="s">
         <v>262</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -14315,16 +14397,16 @@
         <v>379</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>402</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>548</v>
+        <v>552</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>546</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>428</v>
@@ -14336,15 +14418,15 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -14389,7 +14471,7 @@
       <c r="BI21" s="1"/>
     </row>
     <row r="22" spans="1:61" ht="50" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="10" t="s">
         <v>359</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -14414,13 +14496,13 @@
         <v>396</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>548</v>
+        <v>552</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>546</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>428</v>
@@ -14429,23 +14511,23 @@
         <v>428</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AE22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AF22" s="32" t="s">
-        <v>582</v>
+      <c r="AF22" s="28" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:61" ht="79">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="34" t="s">
         <v>124</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -14463,8 +14545,8 @@
       <c r="F23" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="25" t="s">
-        <v>583</v>
+      <c r="G23" s="21" t="s">
+        <v>581</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>392</v>
@@ -14473,13 +14555,13 @@
         <v>400</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="17" t="s">
-        <v>585</v>
+      <c r="L23" s="14" t="s">
+        <v>583</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>427</v>
@@ -14488,19 +14570,19 @@
         <v>427</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>413</v>
@@ -14509,24 +14591,24 @@
         <v>184</v>
       </c>
       <c r="AA23" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="AC23" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="AD23" s="2" t="s">
         <v>129</v>
       </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:61" s="2" customFormat="1" ht="50" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="34" t="s">
         <v>360</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -14549,16 +14631,16 @@
         <v>395</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="17" t="s">
-        <v>593</v>
+      <c r="L24" s="14" t="s">
+        <v>591</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>428</v>
@@ -14572,14 +14654,14 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="32" t="s">
-        <v>573</v>
+      <c r="U24" s="28" t="s">
+        <v>571</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="X24" s="2" t="s">
         <v>415</v>
@@ -14591,7 +14673,7 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-      <c r="AD24" s="32" t="s">
+      <c r="AD24" s="28" t="s">
         <v>91</v>
       </c>
       <c r="AE24" s="2" t="s">
@@ -14624,7 +14706,7 @@
       <c r="BI24" s="1"/>
     </row>
     <row r="25" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="34" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -14642,14 +14724,14 @@
       <c r="F25" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>391</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>379</v>
@@ -14657,8 +14739,8 @@
       <c r="K25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="17" t="s">
-        <v>596</v>
+      <c r="L25" s="14" t="s">
+        <v>594</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>427</v>
@@ -14669,26 +14751,26 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>77</v>
       </c>
       <c r="T25" s="1"/>
-      <c r="U25" s="32" t="s">
-        <v>492</v>
+      <c r="U25" s="28" t="s">
+        <v>490</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="W25" s="1" t="s">
         <v>411</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Y25" s="2" t="s">
         <v>423</v>
@@ -14697,13 +14779,13 @@
         <v>249</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="AB25" s="32" t="s">
-        <v>599</v>
-      </c>
-      <c r="AC25" s="32" t="s">
-        <v>600</v>
+        <v>596</v>
+      </c>
+      <c r="AB25" s="28" t="s">
+        <v>822</v>
+      </c>
+      <c r="AC25" s="28" t="s">
+        <v>597</v>
       </c>
       <c r="AD25" s="2" t="s">
         <v>62</v>
@@ -14743,7 +14825,7 @@
       <c r="BI25" s="2"/>
     </row>
     <row r="26" spans="1:61" ht="50" customHeight="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="10" t="s">
         <v>330</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -14765,16 +14847,16 @@
         <v>379</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>548</v>
+        <v>552</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>546</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>428</v>
@@ -14783,16 +14865,16 @@
         <v>428</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="W26" s="1" t="s">
         <v>411</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AE26" s="2" t="s">
         <v>5</v>
@@ -14824,7 +14906,7 @@
       <c r="BI26" s="3"/>
     </row>
     <row r="27" spans="1:61" ht="62">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="34" t="s">
         <v>194</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -14842,22 +14924,22 @@
       <c r="F27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="25" t="s">
-        <v>583</v>
+      <c r="G27" s="21" t="s">
+        <v>581</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="L27" s="14" t="s">
         <v>404</v>
       </c>
       <c r="M27" s="1" t="s">
@@ -14867,30 +14949,30 @@
         <v>428</v>
       </c>
       <c r="P27" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AC27" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="AD27" s="2" t="s">
         <v>112</v>
       </c>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="31">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="34" t="s">
         <v>190</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -14908,14 +14990,14 @@
       <c r="F28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>395</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>403</v>
@@ -14923,8 +15005,8 @@
       <c r="K28" s="1">
         <v>2</v>
       </c>
-      <c r="L28" s="17" t="s">
-        <v>504</v>
+      <c r="L28" s="14" t="s">
+        <v>502</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>428</v>
@@ -14932,20 +15014,20 @@
       <c r="N28" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="U28" s="32" t="s">
-        <v>573</v>
+      <c r="U28" s="28" t="s">
+        <v>571</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="AA28" s="34" t="s">
-        <v>609</v>
+        <v>496</v>
+      </c>
+      <c r="AA28" s="30" t="s">
+        <v>606</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AD28" s="2" t="s">
         <v>123</v>
@@ -14953,7 +15035,7 @@
       <c r="AE28" s="2"/>
     </row>
     <row r="29" spans="1:61" ht="50" customHeight="1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -14968,14 +15050,14 @@
       <c r="F29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>392</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>403</v>
@@ -14983,8 +15065,8 @@
       <c r="K29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="17" t="s">
-        <v>612</v>
+      <c r="L29" s="14" t="s">
+        <v>609</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>428</v>
@@ -14992,14 +15074,14 @@
       <c r="N29" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="U29" s="32" t="s">
-        <v>573</v>
+      <c r="U29" s="28" t="s">
+        <v>571</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="X29" s="1" t="s">
         <v>416</v>
@@ -15010,7 +15092,7 @@
       <c r="AE29" s="2"/>
     </row>
     <row r="30" spans="1:61" ht="50" customHeight="1">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -15025,22 +15107,22 @@
       <c r="F30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>396</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K30" s="1">
         <v>2</v>
       </c>
-      <c r="L30" s="17" t="s">
+      <c r="L30" s="14" t="s">
         <v>404</v>
       </c>
       <c r="M30" s="1" t="s">
@@ -15049,19 +15131,19 @@
       <c r="N30" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="U30" s="32" t="s">
-        <v>492</v>
+      <c r="U30" s="28" t="s">
+        <v>490</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>422</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="AD30" s="32" t="s">
+        <v>612</v>
+      </c>
+      <c r="AD30" s="28" t="s">
         <v>93</v>
       </c>
       <c r="AE30" s="2" t="s">
@@ -15069,7 +15151,7 @@
       </c>
     </row>
     <row r="31" spans="1:61" ht="50" customHeight="1">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="34" t="s">
         <v>361</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -15091,7 +15173,7 @@
         <v>395</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>402</v>
@@ -15099,8 +15181,8 @@
       <c r="K31" s="1">
         <v>2</v>
       </c>
-      <c r="L31" s="17" t="s">
-        <v>617</v>
+      <c r="L31" s="14" t="s">
+        <v>614</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>428</v>
@@ -15109,28 +15191,28 @@
         <v>428</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="AB31" s="20" t="s">
-        <v>619</v>
+      <c r="AB31" s="17" t="s">
+        <v>616</v>
       </c>
       <c r="AC31" s="3"/>
-      <c r="AD31" s="32" t="s">
+      <c r="AD31" s="28" t="s">
         <v>94</v>
       </c>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="32" spans="1:61" ht="47">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="34" t="s">
         <v>218</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -15148,14 +15230,14 @@
       <c r="F32" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>379</v>
@@ -15163,7 +15245,7 @@
       <c r="K32" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L32" s="17" t="s">
+      <c r="L32" s="14" t="s">
         <v>408</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -15173,39 +15255,39 @@
         <v>427</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="U32" s="32" t="s">
-        <v>573</v>
+        <v>618</v>
+      </c>
+      <c r="U32" s="28" t="s">
+        <v>571</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="Y32" s="32" t="s">
+      <c r="Y32" s="28" t="s">
         <v>147</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="AD32" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="AD32" s="28" t="s">
         <v>148</v>
       </c>
       <c r="AE32" s="2"/>
     </row>
     <row r="33" spans="1:32" ht="31">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="34" t="s">
         <v>369</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -15221,16 +15303,16 @@
         <v>377</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>627</v>
+        <v>623</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>624</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>379</v>
@@ -15238,7 +15320,7 @@
       <c r="K33" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L33" s="17" t="s">
+      <c r="L33" s="14" t="s">
         <v>408</v>
       </c>
       <c r="M33" s="1" t="s">
@@ -15248,27 +15330,27 @@
         <v>428</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD33" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="AD33" s="28" t="s">
         <v>325</v>
       </c>
       <c r="AE33" s="2"/>
     </row>
     <row r="34" spans="1:32" ht="50" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="10" t="s">
         <v>331</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -15293,12 +15375,12 @@
         <v>396</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L34" s="17" t="s">
+      <c r="L34" s="14" t="s">
         <v>410</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -15308,16 +15390,16 @@
         <v>427</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>100</v>
@@ -15326,47 +15408,47 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:32" s="15" customFormat="1" ht="50" customHeight="1">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:32" s="12" customFormat="1" ht="50" customHeight="1">
+      <c r="A35" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="12">
         <v>2011</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="F35" s="15" t="s">
+      <c r="E35" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="F35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="I35" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="J35" s="20"/>
-      <c r="L35" s="21"/>
-      <c r="O35" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="Y35" s="15" t="s">
+      <c r="I35" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="J35" s="17"/>
+      <c r="L35" s="18"/>
+      <c r="O35" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y35" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="16" t="s">
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="AF35" s="16"/>
+      <c r="AF35" s="13"/>
     </row>
     <row r="36" spans="1:32" ht="93.5">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -15381,23 +15463,23 @@
       <c r="F36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>392</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="L36" s="19" t="s">
-        <v>548</v>
+        <v>552</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>546</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>427</v>
@@ -15406,30 +15488,30 @@
         <v>427</v>
       </c>
       <c r="O36" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="X36" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="AA36" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="AD36" s="32" t="s">
+      <c r="AD36" s="28" t="s">
         <v>172</v>
       </c>
       <c r="AE36" s="2" t="s">
@@ -15437,8 +15519,8 @@
       </c>
     </row>
     <row r="37" spans="1:32" ht="108">
-      <c r="A37" s="10" t="s">
-        <v>452</v>
+      <c r="A37" s="34" t="s">
+        <v>450</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>106</v>
@@ -15455,14 +15537,14 @@
       <c r="F37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>395</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>402</v>
@@ -15470,8 +15552,8 @@
       <c r="K37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L37" s="17" t="s">
-        <v>638</v>
+      <c r="L37" s="14" t="s">
+        <v>635</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>428</v>
@@ -15480,19 +15562,19 @@
         <v>427</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="U37" s="32" t="s">
-        <v>513</v>
+        <v>637</v>
+      </c>
+      <c r="U37" s="28" t="s">
+        <v>511</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>413</v>
@@ -15501,16 +15583,16 @@
         <v>165</v>
       </c>
       <c r="Z37" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB37" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AC37" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="AA37" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="AB37" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="AC37" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="AD37" s="2" t="s">
         <v>110</v>
@@ -15519,11 +15601,11 @@
         <v>252</v>
       </c>
       <c r="AF37" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="31">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="34" t="s">
         <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -15541,22 +15623,22 @@
       <c r="F38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L38" s="17" t="s">
+      <c r="L38" s="14" t="s">
         <v>404</v>
       </c>
       <c r="M38" s="1" t="s">
@@ -15566,22 +15648,22 @@
         <v>428</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>116</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AD38" s="2" t="s">
         <v>117</v>
@@ -15589,7 +15671,7 @@
       <c r="AE38" s="2"/>
     </row>
     <row r="39" spans="1:32" ht="62">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="10" t="s">
         <v>355</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -15604,22 +15686,22 @@
       <c r="F39" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>391</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L39" s="17" t="s">
+      <c r="L39" s="14" t="s">
         <v>404</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -15629,16 +15711,16 @@
         <v>427</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="U39" s="32" t="s">
-        <v>573</v>
+        <v>595</v>
+      </c>
+      <c r="U39" s="28" t="s">
+        <v>571</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="W39" s="1" t="s">
         <v>411</v>
@@ -15650,18 +15732,18 @@
         <v>119</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AD39" s="32" t="s">
+        <v>650</v>
+      </c>
+      <c r="AD39" s="28" t="s">
         <v>176</v>
       </c>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="46.5">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>134</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -15676,7 +15758,7 @@
       <c r="F40" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="19" t="s">
         <v>379</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -15691,7 +15773,7 @@
       <c r="K40" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L40" s="17" t="s">
+      <c r="L40" s="14" t="s">
         <v>408</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -15701,16 +15783,16 @@
         <v>428</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="W40" s="1" t="s">
         <v>411</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AD40" s="2" t="s">
         <v>333</v>
@@ -15719,11 +15801,11 @@
         <v>137</v>
       </c>
       <c r="AF40" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="77">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="34" t="s">
         <v>364</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -15741,23 +15823,23 @@
       <c r="F41" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>394</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L41" s="17" t="s">
-        <v>552</v>
+      <c r="L41" s="14" t="s">
+        <v>550</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>428</v>
@@ -15766,19 +15848,19 @@
         <v>427</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="U41" s="32" t="s">
-        <v>573</v>
+        <v>655</v>
+      </c>
+      <c r="U41" s="28" t="s">
+        <v>571</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>413</v>
@@ -15790,87 +15872,87 @@
         <v>429</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="AD41" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="AD41" s="28" t="s">
         <v>192</v>
       </c>
       <c r="AE41" s="2" t="s">
         <v>433</v>
       </c>
       <c r="AF41" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" s="12" customFormat="1" ht="93">
+      <c r="A42" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="12">
+        <v>2012</v>
+      </c>
+      <c r="D42" s="12">
+        <v>2016</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="J42" s="31"/>
+      <c r="L42" s="18"/>
+      <c r="O42" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="U42" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="W42" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y42" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB42" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC42" s="12" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" s="15" customFormat="1" ht="93">
-      <c r="A42" s="22" t="s">
-        <v>453</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="15">
-        <v>2012</v>
-      </c>
-      <c r="D42" s="15">
-        <v>2016</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="I42" s="15" t="s">
+      <c r="AD42" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE42" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF42" s="12" t="s">
         <v>662</v>
-      </c>
-      <c r="J42" s="35"/>
-      <c r="L42" s="21"/>
-      <c r="O42" s="15" t="s">
-        <v>663</v>
-      </c>
-      <c r="S42" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="U42" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="V42" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="W42" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y42" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AB42" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="AC42" s="15" t="s">
-        <v>664</v>
-      </c>
-      <c r="AD42" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE42" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF42" s="15" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="62">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="34" t="s">
         <v>191</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -15888,23 +15970,23 @@
       <c r="F43" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L43" s="17" t="s">
-        <v>669</v>
+      <c r="L43" s="14" t="s">
+        <v>666</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>428</v>
@@ -15913,25 +15995,25 @@
         <v>428</v>
       </c>
       <c r="P43" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="W43" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>415</v>
@@ -15943,22 +16025,22 @@
         <v>253</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="AD43" s="32" t="s">
+        <v>673</v>
+      </c>
+      <c r="AD43" s="28" t="s">
         <v>334</v>
       </c>
       <c r="AE43" s="2"/>
     </row>
     <row r="44" spans="1:32" ht="62">
-      <c r="A44" s="1" t="s">
-        <v>454</v>
+      <c r="A44" s="10" t="s">
+        <v>452</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>343</v>
@@ -15967,19 +16049,19 @@
         <v>2013</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>391</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>403</v>
@@ -15987,8 +16069,8 @@
       <c r="K44" s="1">
         <v>2</v>
       </c>
-      <c r="L44" s="17" t="s">
-        <v>504</v>
+      <c r="L44" s="14" t="s">
+        <v>502</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>428</v>
@@ -15997,16 +16079,16 @@
         <v>428</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2" t="s">
@@ -16014,7 +16096,7 @@
       </c>
     </row>
     <row r="45" spans="1:32" ht="31">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="34" t="s">
         <v>120</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -16032,14 +16114,14 @@
       <c r="F45" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>402</v>
@@ -16047,8 +16129,8 @@
       <c r="K45" s="1">
         <v>2</v>
       </c>
-      <c r="L45" s="17" t="s">
-        <v>504</v>
+      <c r="L45" s="14" t="s">
+        <v>502</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>428</v>
@@ -16057,16 +16139,16 @@
         <v>428</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="AD45" s="2" t="s">
         <v>140</v>
@@ -16074,7 +16156,7 @@
       <c r="AE45" s="2"/>
     </row>
     <row r="46" spans="1:32" ht="46.5">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="10" t="s">
         <v>142</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -16084,28 +16166,28 @@
         <v>2013</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="19" t="s">
         <v>379</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>379</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="L46" s="19" t="s">
-        <v>548</v>
+        <v>680</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>546</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>427</v>
@@ -16113,75 +16195,75 @@
       <c r="N46" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="U46" s="32" t="s">
+      <c r="U46" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="W46" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="X46" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="AD46" s="32"/>
+        <v>552</v>
+      </c>
+      <c r="AD46" s="28"/>
       <c r="AE46" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="15" customFormat="1" ht="62">
-      <c r="A47" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="B47" s="15" t="s">
+    <row r="47" spans="1:32" s="12" customFormat="1" ht="62">
+      <c r="A47" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="12">
         <v>2013</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="I47" s="15" t="s">
+      <c r="I47" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="L47" s="18"/>
+      <c r="S47" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="U47" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="V47" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="W47" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA47" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="AD47" s="31"/>
+      <c r="AE47" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF47" s="13" t="s">
         <v>684</v>
-      </c>
-      <c r="L47" s="21"/>
-      <c r="S47" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="U47" s="15" t="s">
-        <v>685</v>
-      </c>
-      <c r="V47" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="W47" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA47" s="15" t="s">
-        <v>686</v>
-      </c>
-      <c r="AD47" s="35"/>
-      <c r="AE47" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF47" s="16" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="32">
-      <c r="A48" s="10" t="s">
-        <v>456</v>
+      <c r="A48" s="34" t="s">
+        <v>454</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>144</v>
@@ -16198,23 +16280,23 @@
       <c r="F48" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>393</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="L48" s="19" t="s">
-        <v>690</v>
+      <c r="L48" s="16" t="s">
+        <v>687</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>428</v>
@@ -16223,22 +16305,22 @@
         <v>427</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="W48" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="X48" s="1" t="s">
         <v>416</v>
@@ -16247,60 +16329,60 @@
         <v>145</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="AD48" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="AD48" s="28" t="s">
         <v>146</v>
       </c>
       <c r="AE48" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:32" s="15" customFormat="1" ht="32">
-      <c r="A49" s="35" t="s">
-        <v>457</v>
-      </c>
-      <c r="B49" s="15" t="s">
+    <row r="49" spans="1:32" s="12" customFormat="1" ht="32">
+      <c r="A49" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="12">
         <v>2014</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E49" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="G49" s="31" t="s">
+      <c r="G49" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="I49" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="L49" s="21"/>
-      <c r="P49" s="15" t="s">
+      <c r="L49" s="18"/>
+      <c r="P49" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="AD49" s="35"/>
-      <c r="AE49" s="35" t="s">
+      <c r="AD49" s="31"/>
+      <c r="AE49" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="AF49" s="16" t="s">
-        <v>446</v>
+      <c r="AF49" s="13" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="31">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="34" t="s">
         <v>365</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -16318,7 +16400,7 @@
       <c r="F50" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="21" t="s">
         <v>380</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -16333,7 +16415,7 @@
       <c r="K50" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="L50" s="17" t="s">
+      <c r="L50" s="14" t="s">
         <v>408</v>
       </c>
       <c r="M50" s="1" t="s">
@@ -16343,36 +16425,36 @@
         <v>427</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="AA50" s="1" t="s">
         <v>432</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="AD50" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="AD50" s="28" t="s">
         <v>198</v>
       </c>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="31">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="34" t="s">
         <v>151</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -16394,7 +16476,7 @@
         <v>384</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>401</v>
@@ -16405,8 +16487,8 @@
       <c r="K51" s="1">
         <v>2</v>
       </c>
-      <c r="L51" s="17" t="s">
-        <v>572</v>
+      <c r="L51" s="14" t="s">
+        <v>570</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>428</v>
@@ -16415,72 +16497,72 @@
         <v>428</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Z51" s="1" t="s">
         <v>183</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="AD51" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="AD51" s="28" t="s">
         <v>153</v>
       </c>
       <c r="AE51" s="2"/>
     </row>
-    <row r="52" spans="1:32" s="15" customFormat="1" ht="123">
-      <c r="A52" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="B52" s="15" t="s">
+    <row r="52" spans="1:32" s="12" customFormat="1" ht="123">
+      <c r="A52" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="12">
         <v>2015</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G52" s="29" t="s">
+      <c r="G52" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="H52" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="I52" s="15" t="s">
+      <c r="H52" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="I52" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="L52" s="21"/>
-      <c r="T52" s="15" t="s">
-        <v>702</v>
-      </c>
-      <c r="U52" s="15" t="s">
-        <v>703</v>
-      </c>
-      <c r="AD52" s="35" t="s">
+      <c r="L52" s="18"/>
+      <c r="T52" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="U52" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="AD52" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="AE52" s="35" t="s">
+      <c r="AE52" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="AF52" s="16" t="s">
+      <c r="AF52" s="13" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:32" ht="30">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="33" t="s">
         <v>156</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -16495,7 +16577,7 @@
       <c r="F53" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H53" s="1" t="s">
@@ -16510,7 +16592,7 @@
       <c r="K53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L53" s="17" t="s">
+      <c r="L53" s="14" t="s">
         <v>409</v>
       </c>
       <c r="M53" s="1" t="s">
@@ -16520,27 +16602,27 @@
         <v>427</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="Y53" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y53" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="AD53" s="32" t="s">
+      <c r="AD53" s="28" t="s">
         <v>158</v>
       </c>
       <c r="AE53" s="2"/>
@@ -16548,58 +16630,58 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:32" s="15" customFormat="1" ht="31">
-      <c r="A54" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="B54" s="15" t="s">
+    <row r="54" spans="1:32" s="12" customFormat="1" ht="31">
+      <c r="A54" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="12">
         <v>2015</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="12">
         <v>2015</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G54" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="H54" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="I54" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="L54" s="21"/>
-      <c r="S54" s="15" t="s">
+      <c r="I54" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="L54" s="18"/>
+      <c r="S54" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y54" s="31"/>
+      <c r="AA54" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="AB54" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="AC54" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="Y54" s="35"/>
-      <c r="AA54" s="15" t="s">
+      <c r="AD54" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE54" s="13"/>
+      <c r="AF54" s="13" t="s">
         <v>707</v>
-      </c>
-      <c r="AB54" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="AC54" s="15" t="s">
-        <v>709</v>
-      </c>
-      <c r="AD54" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE54" s="16"/>
-      <c r="AF54" s="16" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="30">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="34" t="s">
         <v>257</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -16617,23 +16699,23 @@
       <c r="F55" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G55" s="24" t="s">
-        <v>711</v>
+      <c r="G55" s="20" t="s">
+        <v>708</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>396</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="L55" s="17" t="s">
-        <v>552</v>
+      <c r="L55" s="14" t="s">
+        <v>550</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>428</v>
@@ -16642,25 +16724,25 @@
         <v>428</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="Y55" s="32"/>
+        <v>496</v>
+      </c>
+      <c r="Y55" s="28"/>
       <c r="AB55" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="AD55" s="32" t="s">
+        <v>710</v>
+      </c>
+      <c r="AD55" s="28" t="s">
         <v>231</v>
       </c>
       <c r="AE55" s="2"/>
     </row>
     <row r="56" spans="1:32" ht="62">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="33" t="s">
         <v>370</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -16670,19 +16752,19 @@
         <v>2016</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="G56" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="G56" s="19" t="s">
         <v>379</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>379</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>403</v>
@@ -16690,7 +16772,7 @@
       <c r="K56" s="1">
         <v>2</v>
       </c>
-      <c r="L56" s="17" t="s">
+      <c r="L56" s="14" t="s">
         <v>404</v>
       </c>
       <c r="M56" s="1" t="s">
@@ -16699,83 +16781,83 @@
       <c r="N56" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="U56" s="32" t="s">
-        <v>492</v>
+      <c r="U56" s="28" t="s">
+        <v>490</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="AD56" s="32"/>
-      <c r="AE56" s="32" t="s">
+        <v>711</v>
+      </c>
+      <c r="AD56" s="28"/>
+      <c r="AE56" s="28" t="s">
         <v>160</v>
       </c>
       <c r="AF56" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:32" s="15" customFormat="1" ht="48">
-      <c r="A57" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="B57" s="15" t="s">
+    <row r="57" spans="1:32" s="12" customFormat="1" ht="48">
+      <c r="A57" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="12">
         <v>2016</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="12">
         <v>2017</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G57" s="31" t="s">
+      <c r="G57" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="H57" s="15" t="s">
+      <c r="H57" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="I57" s="15" t="s">
+      <c r="I57" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="L57" s="21"/>
-      <c r="S57" s="15" t="s">
+      <c r="L57" s="18"/>
+      <c r="S57" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="U57" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="W57" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA57" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="AB57" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="U57" s="15" t="s">
+      <c r="AC57" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="AD57" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE57" s="31"/>
+      <c r="AF57" s="13" t="s">
         <v>716</v>
-      </c>
-      <c r="W57" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA57" s="15" t="s">
-        <v>717</v>
-      </c>
-      <c r="AB57" s="15" t="s">
-        <v>718</v>
-      </c>
-      <c r="AC57" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="AD57" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE57" s="35"/>
-      <c r="AF57" s="16" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="32">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="34" t="s">
         <v>371</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -16794,22 +16876,22 @@
         <v>388</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>395</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K58" s="1">
         <v>2</v>
       </c>
-      <c r="L58" s="17" t="s">
-        <v>723</v>
+      <c r="L58" s="14" t="s">
+        <v>720</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>428</v>
@@ -16818,29 +16900,29 @@
         <v>428</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="AD58" s="32" t="s">
+        <v>723</v>
+      </c>
+      <c r="AD58" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="AE58" s="32" t="s">
+      <c r="AE58" s="28" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="29">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="34" t="s">
         <v>200</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -16858,23 +16940,23 @@
       <c r="F59" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="G59" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>395</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>402</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="L59" s="19" t="s">
-        <v>548</v>
+        <v>680</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>546</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>428</v>
@@ -16883,38 +16965,38 @@
         <v>428</v>
       </c>
       <c r="U59" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA59" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="AB59" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="AC59" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="W59" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="X59" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="AA59" s="1" t="s">
+      <c r="AD59" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE59" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF59" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="AB59" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="AC59" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="AD59" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE59" s="32" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF59" s="2" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="31">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="34" t="s">
         <v>223</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -16932,7 +17014,7 @@
       <c r="F60" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G60" s="23" t="s">
+      <c r="G60" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H60" s="1" t="s">
@@ -16942,13 +17024,13 @@
         <v>396</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K60" s="1">
         <v>2</v>
       </c>
-      <c r="L60" s="17" t="s">
-        <v>723</v>
+      <c r="L60" s="14" t="s">
+        <v>720</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>428</v>
@@ -16957,27 +17039,27 @@
         <v>428</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="AD60" s="32" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD60" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="AE60" s="32"/>
+      <c r="AE60" s="28"/>
       <c r="AF60" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="108.5">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="34" t="s">
         <v>372</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -16992,26 +17074,26 @@
       <c r="E61" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="F61" s="32" t="s">
-        <v>735</v>
-      </c>
-      <c r="G61" s="23" t="s">
+      <c r="F61" s="28" t="s">
+        <v>732</v>
+      </c>
+      <c r="G61" s="19" t="s">
         <v>379</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>395</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="L61" s="17" t="s">
-        <v>737</v>
+      <c r="L61" s="14" t="s">
+        <v>734</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>428</v>
@@ -17019,34 +17101,34 @@
       <c r="N61" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="U61" s="32" t="s">
-        <v>573</v>
+      <c r="U61" s="28" t="s">
+        <v>571</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="W61" s="1" t="s">
         <v>411</v>
       </c>
       <c r="X61" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="AB61" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="AC61" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD61" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE61" s="28"/>
+      <c r="AF61" s="2" t="s">
         <v>739</v>
-      </c>
-      <c r="AB61" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="AC61" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="AD61" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE61" s="32"/>
-      <c r="AF61" s="2" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="46.5">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="34" t="s">
         <v>258</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -17064,23 +17146,23 @@
       <c r="F62" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G62" s="24" t="s">
+      <c r="G62" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L62" s="17" t="s">
-        <v>669</v>
+      <c r="L62" s="14" t="s">
+        <v>666</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>428</v>
@@ -17089,13 +17171,13 @@
         <v>428</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="X62" s="2" t="s">
         <v>416</v>
@@ -17104,121 +17186,121 @@
         <v>425</v>
       </c>
       <c r="AA62" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="AB62" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="AC62" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AD62" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE62" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" s="12" customFormat="1" ht="108">
+      <c r="A63" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="12">
+        <v>2018</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="L63" s="18"/>
+      <c r="S63" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="U63" s="32" t="s">
+        <v>745</v>
+      </c>
+      <c r="V63" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="W63" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD63" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE63" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF63" s="13"/>
+    </row>
+    <row r="64" spans="1:32" s="12" customFormat="1" ht="31">
+      <c r="A64" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D64" s="12">
+        <v>2019</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="F64" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="AB62" s="1" t="s">
+      <c r="G64" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="L64" s="18"/>
+      <c r="S64" s="12" t="s">
         <v>747</v>
       </c>
-      <c r="AC62" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="AD62" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE62" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32" s="15" customFormat="1" ht="108">
-      <c r="A63" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63" s="15">
-        <v>2018</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>626</v>
-      </c>
-      <c r="G63" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="I63" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="L63" s="21"/>
-      <c r="S63" s="15" t="s">
-        <v>445</v>
-      </c>
-      <c r="U63" s="36" t="s">
+      <c r="U64" s="31" t="s">
         <v>748</v>
       </c>
-      <c r="V63" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="W63" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD63" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE63" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF63" s="16"/>
-    </row>
-    <row r="64" spans="1:32" s="15" customFormat="1" ht="31">
-      <c r="A64" s="22" t="s">
-        <v>451</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C64" s="15">
-        <v>2018</v>
-      </c>
-      <c r="D64" s="15">
-        <v>2019</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="F64" s="15" t="s">
+      <c r="AA64" s="12" t="s">
         <v>749</v>
       </c>
-      <c r="G64" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="I64" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="L64" s="21"/>
-      <c r="S64" s="15" t="s">
+      <c r="AB64" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="U64" s="35" t="s">
+      <c r="AC64" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="AA64" s="15" t="s">
+      <c r="AD64" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE64" s="31"/>
+      <c r="AF64" s="13" t="s">
         <v>752</v>
-      </c>
-      <c r="AB64" s="15" t="s">
-        <v>753</v>
-      </c>
-      <c r="AC64" s="15" t="s">
-        <v>754</v>
-      </c>
-      <c r="AD64" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE64" s="35"/>
-      <c r="AF64" s="16" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="79">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="34" t="s">
         <v>213</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -17232,16 +17314,16 @@
         <v>377</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="G65" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="G65" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>403</v>
@@ -17249,8 +17331,8 @@
       <c r="K65" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L65" s="17" t="s">
-        <v>756</v>
+      <c r="L65" s="14" t="s">
+        <v>753</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>428</v>
@@ -17259,13 +17341,13 @@
         <v>428</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="X65" s="1" t="s">
         <v>418</v>
@@ -17274,15 +17356,15 @@
         <v>216</v>
       </c>
       <c r="AA65" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="AD65" s="32" t="s">
+        <v>755</v>
+      </c>
+      <c r="AD65" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="AE65" s="32"/>
+      <c r="AE65" s="28"/>
     </row>
     <row r="66" spans="1:32" ht="29">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="34" t="s">
         <v>220</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -17300,23 +17382,23 @@
       <c r="F66" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G66" s="24" t="s">
+      <c r="G66" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>395</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L66" s="17" t="s">
-        <v>552</v>
+      <c r="L66" s="14" t="s">
+        <v>550</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>428</v>
@@ -17325,24 +17407,24 @@
         <v>428</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="AD66" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="AD66" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="AE66" s="32"/>
+      <c r="AE66" s="28"/>
     </row>
     <row r="67" spans="1:32" ht="46.5">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="34" t="s">
         <v>362</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -17360,23 +17442,23 @@
       <c r="F67" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G67" s="24" t="s">
+      <c r="G67" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>395</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="L67" s="19" t="s">
-        <v>762</v>
+        <v>633</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>759</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>428</v>
@@ -17385,24 +17467,24 @@
         <v>428</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="AC67" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="AD67" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="AD67" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="AE67" s="32"/>
+      <c r="AE67" s="28"/>
     </row>
     <row r="68" spans="1:32" ht="109">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="34" t="s">
         <v>208</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -17420,23 +17502,23 @@
       <c r="F68" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G68" s="24" t="s">
+      <c r="G68" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="L68" s="18" t="s">
-        <v>765</v>
+      <c r="L68" s="15" t="s">
+        <v>762</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>428</v>
@@ -17445,44 +17527,44 @@
         <v>428</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="T68" s="2" t="s">
         <v>434</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W68" s="1" t="s">
         <v>411</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Z68" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="AC68" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="AD68" s="32" t="s">
+        <v>723</v>
+      </c>
+      <c r="AD68" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="AE68" s="32" t="s">
+      <c r="AE68" s="28" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="31">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="34" t="s">
         <v>169</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -17494,20 +17576,20 @@
       <c r="F69" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G69" s="24" t="s">
+      <c r="G69" s="20" t="s">
         <v>380</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>391</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L69" s="17" t="s">
-        <v>770</v>
+      <c r="L69" s="14" t="s">
+        <v>767</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>428</v>
@@ -17516,13 +17598,13 @@
         <v>428</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="X69" s="1" t="s">
         <v>416</v>
@@ -17530,13 +17612,13 @@
       <c r="Y69" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AD69" s="32" t="s">
+      <c r="AD69" s="28" t="s">
         <v>173</v>
       </c>
       <c r="AE69" s="2"/>
     </row>
     <row r="70" spans="1:32" ht="50" customHeight="1">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="10" t="s">
         <v>363</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -17549,22 +17631,22 @@
         <v>379</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>392</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="K70" s="1">
         <v>2</v>
       </c>
-      <c r="L70" s="17" t="s">
-        <v>617</v>
+      <c r="L70" s="14" t="s">
+        <v>614</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>428</v>
@@ -17573,33 +17655,33 @@
         <v>428</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="Y70" s="1" t="s">
         <v>98</v>
       </c>
       <c r="Z70" s="3"/>
-      <c r="AD70" s="32" t="s">
+      <c r="AD70" s="28" t="s">
         <v>96</v>
       </c>
       <c r="AF70" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="31">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="10" t="s">
         <v>285</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -17614,7 +17696,7 @@
       <c r="F71" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G71" s="23" t="s">
+      <c r="G71" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H71" s="1" t="s">
@@ -17629,8 +17711,8 @@
       <c r="K71" s="1">
         <v>2</v>
       </c>
-      <c r="L71" s="17" t="s">
-        <v>525</v>
+      <c r="L71" s="14" t="s">
+        <v>523</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>428</v>
@@ -17638,17 +17720,17 @@
       <c r="N71" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="U71" s="32" t="s">
-        <v>573</v>
+      <c r="U71" s="28" t="s">
+        <v>571</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="AD71" s="6" t="s">
         <v>287</v>
@@ -17658,7 +17740,7 @@
       </c>
     </row>
     <row r="72" spans="1:32" ht="31">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="10" t="s">
         <v>373</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -17676,23 +17758,23 @@
       <c r="F72" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G72" s="23" t="s">
+      <c r="G72" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>395</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="L72" s="17" t="s">
-        <v>778</v>
+      <c r="L72" s="14" t="s">
+        <v>775</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>428</v>
@@ -17701,29 +17783,29 @@
         <v>428</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="X72" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AB72" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="AD72" s="6" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="31">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="10" t="s">
         <v>327</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -17741,7 +17823,7 @@
       <c r="F73" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G73" s="23" t="s">
+      <c r="G73" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H73" s="1" t="s">
@@ -17756,7 +17838,7 @@
       <c r="K73" s="1">
         <v>2</v>
       </c>
-      <c r="L73" s="17" t="s">
+      <c r="L73" s="14" t="s">
         <v>404</v>
       </c>
       <c r="M73" s="1" t="s">
@@ -17766,26 +17848,26 @@
         <v>428</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="AD73" s="6" t="s">
         <v>284</v>
       </c>
       <c r="AF73" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="31">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="10" t="s">
         <v>374</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -17801,25 +17883,25 @@
         <v>377</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="G74" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="G74" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="K74" s="1">
         <v>2</v>
       </c>
-      <c r="L74" s="17" t="s">
-        <v>504</v>
+      <c r="L74" s="14" t="s">
+        <v>502</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>428</v>
@@ -17828,26 +17910,26 @@
         <v>428</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AA74" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="AC74" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AD74" s="6" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="31">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="10" t="s">
         <v>312</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -17865,23 +17947,23 @@
       <c r="F75" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G75" s="23" t="s">
+      <c r="G75" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="L75" s="17" t="s">
-        <v>669</v>
+      <c r="L75" s="14" t="s">
+        <v>666</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>428</v>
@@ -17890,23 +17972,23 @@
         <v>428</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AB75" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="AC75" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="AD75" s="6" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="31">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="10" t="s">
         <v>268</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -17924,14 +18006,14 @@
       <c r="F76" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G76" s="23" t="s">
+      <c r="G76" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>395</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>402</v>
@@ -17939,8 +18021,8 @@
       <c r="K76" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="L76" s="17" t="s">
-        <v>787</v>
+      <c r="L76" s="14" t="s">
+        <v>784</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>428</v>
@@ -17948,33 +18030,33 @@
       <c r="N76" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="U76" s="32" t="s">
+      <c r="U76" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="W76" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="V76" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="W76" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="X76" s="1" t="s">
         <v>417</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="AB76" s="1" t="s">
         <v>271</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="AD76" s="6" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:32" ht="32">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="10" t="s">
         <v>267</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -17990,16 +18072,16 @@
         <v>377</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="G77" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="G77" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>391</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>402</v>
@@ -18007,8 +18089,8 @@
       <c r="K77" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="L77" s="17" t="s">
-        <v>791</v>
+      <c r="L77" s="14" t="s">
+        <v>788</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>428</v>
@@ -18017,35 +18099,35 @@
         <v>427</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="X77" s="1" t="s">
         <v>415</v>
       </c>
       <c r="AA77" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="AB77" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AD77" s="6" t="s">
         <v>274</v>
       </c>
       <c r="AF77" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="31">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="10" t="s">
         <v>263</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -18063,7 +18145,7 @@
       <c r="F78" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G78" s="23" t="s">
+      <c r="G78" s="19" t="s">
         <v>385</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -18073,13 +18155,13 @@
         <v>396</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K78" s="1">
         <v>1</v>
       </c>
-      <c r="L78" s="17" t="s">
-        <v>796</v>
+      <c r="L78" s="14" t="s">
+        <v>793</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>428</v>
@@ -18087,77 +18169,77 @@
       <c r="N78" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="U78" s="32" t="s">
-        <v>573</v>
+      <c r="U78" s="28" t="s">
+        <v>571</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Y78" s="1" t="s">
         <v>264</v>
       </c>
       <c r="AA78" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="AC78" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="79" spans="1:32" s="15" customFormat="1" ht="46">
-      <c r="A79" s="15" t="s">
+    <row r="79" spans="1:32" s="12" customFormat="1" ht="46">
+      <c r="A79" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="12">
         <v>2015</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="12">
         <v>2015</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="F79" s="15" t="s">
+      <c r="F79" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="G79" s="31" t="s">
+      <c r="G79" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="H79" s="15" t="s">
+      <c r="H79" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="I79" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="L79" s="21"/>
-      <c r="S79" s="15" t="s">
-        <v>799</v>
-      </c>
-      <c r="U79" s="15" t="s">
-        <v>800</v>
-      </c>
-      <c r="AB79" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="AC79" s="15" t="s">
-        <v>801</v>
-      </c>
-      <c r="AD79" s="30" t="s">
+      <c r="I79" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="L79" s="18"/>
+      <c r="S79" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="U79" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="AB79" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC79" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="AD79" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="AE79" s="30"/>
-      <c r="AF79" s="16"/>
+      <c r="AE79" s="26"/>
+      <c r="AF79" s="13"/>
     </row>
     <row r="80" spans="1:32" ht="31">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="10" t="s">
         <v>324</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -18175,22 +18257,22 @@
       <c r="F80" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G80" s="23" t="s">
+      <c r="G80" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>395</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K80" s="1">
         <v>2</v>
       </c>
-      <c r="L80" s="17" t="s">
+      <c r="L80" s="14" t="s">
         <v>404</v>
       </c>
       <c r="M80" s="1" t="s">
@@ -18200,26 +18282,26 @@
         <v>427</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Y80" s="1" t="s">
         <v>426</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="AD80" s="6" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="81" spans="1:32" ht="31">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="10" t="s">
         <v>307</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -18237,7 +18319,7 @@
       <c r="F81" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G81" s="23" t="s">
+      <c r="G81" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H81" s="1" t="s">
@@ -18247,12 +18329,12 @@
         <v>396</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="L81" s="17" t="s">
+      <c r="L81" s="14" t="s">
         <v>408</v>
       </c>
       <c r="M81" s="1" t="s">
@@ -18262,23 +18344,23 @@
         <v>428</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="AC81" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="AD81" s="6" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="32">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="10" t="s">
         <v>289</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -18294,25 +18376,25 @@
         <v>377</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="G82" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="G82" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>391</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="K82" s="1">
         <v>2</v>
       </c>
-      <c r="L82" s="17" t="s">
-        <v>770</v>
+      <c r="L82" s="14" t="s">
+        <v>767</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>427</v>
@@ -18321,38 +18403,38 @@
         <v>428</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="X82" s="1" t="s">
         <v>415</v>
       </c>
       <c r="AA82" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="AC82" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="AD82" s="6" t="s">
         <v>291</v>
       </c>
       <c r="AF82" s="2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="31">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="10" t="s">
         <v>317</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -18368,9 +18450,9 @@
         <v>377</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="G83" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="G83" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H83" s="1" t="s">
@@ -18385,8 +18467,8 @@
       <c r="K83" s="1">
         <v>3</v>
       </c>
-      <c r="L83" s="17" t="s">
-        <v>810</v>
+      <c r="L83" s="14" t="s">
+        <v>807</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>428</v>
@@ -18395,16 +18477,16 @@
         <v>428</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="AD83" s="6" t="s">
         <v>319</v>
@@ -18414,7 +18496,7 @@
       </c>
     </row>
     <row r="84" spans="1:32" ht="31">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="10" t="s">
         <v>366</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -18432,14 +18514,14 @@
       <c r="F84" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G84" s="23" t="s">
+      <c r="G84" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>395</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>402</v>
@@ -18447,8 +18529,8 @@
       <c r="K84" s="1">
         <v>2</v>
       </c>
-      <c r="L84" s="17" t="s">
-        <v>525</v>
+      <c r="L84" s="14" t="s">
+        <v>523</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>428</v>
@@ -18456,24 +18538,24 @@
       <c r="N84" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="U84" s="32" t="s">
-        <v>813</v>
+      <c r="U84" s="28" t="s">
+        <v>810</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AD84" s="6" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="31">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="10" t="s">
         <v>280</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -18491,14 +18573,14 @@
       <c r="F85" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G85" s="23" t="s">
-        <v>815</v>
+      <c r="G85" s="19" t="s">
+        <v>812</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>395</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>402</v>
@@ -18506,8 +18588,8 @@
       <c r="K85" s="1">
         <v>2</v>
       </c>
-      <c r="L85" s="17" t="s">
-        <v>525</v>
+      <c r="L85" s="14" t="s">
+        <v>523</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>428</v>
@@ -18515,33 +18597,33 @@
       <c r="N85" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="U85" s="32" t="s">
-        <v>573</v>
+      <c r="U85" s="28" t="s">
+        <v>571</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="X85" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AA85" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="AD85" s="6" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="31">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="10" t="s">
         <v>275</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -18559,23 +18641,23 @@
       <c r="F86" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G86" s="23" t="s">
+      <c r="G86" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>396</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L86" s="17" t="s">
-        <v>552</v>
+      <c r="L86" s="14" t="s">
+        <v>550</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>428</v>
@@ -18584,23 +18666,23 @@
         <v>428</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AD86" s="6" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="46.5">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="10" t="s">
         <v>375</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -18616,16 +18698,16 @@
         <v>377</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="G87" s="23" t="s">
+        <v>746</v>
+      </c>
+      <c r="G87" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>391</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>402</v>
@@ -18633,7 +18715,7 @@
       <c r="K87" s="1">
         <v>2</v>
       </c>
-      <c r="L87" s="17" t="s">
+      <c r="L87" s="14" t="s">
         <v>404</v>
       </c>
       <c r="M87" s="1" t="s">
@@ -18643,26 +18725,26 @@
         <v>428</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AA87" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="AD87" s="6" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="31">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="10" t="s">
         <v>297</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -18680,23 +18762,23 @@
       <c r="F88" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G88" s="23" t="s">
+      <c r="G88" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>393</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L88" s="17" t="s">
-        <v>504</v>
+      <c r="L88" s="14" t="s">
+        <v>502</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>428</v>
@@ -18705,29 +18787,29 @@
         <v>428</v>
       </c>
       <c r="U88" s="2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="X88" s="1" t="s">
         <v>416</v>
       </c>
       <c r="AB88" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="AC88" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="AD88" s="6" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="31">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="10" t="s">
         <v>302</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -18743,9 +18825,9 @@
         <v>377</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="G89" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="G89" s="19" t="s">
         <v>380</v>
       </c>
       <c r="H89" s="1" t="s">
@@ -18755,13 +18837,13 @@
         <v>396</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K89" s="1">
         <v>1</v>
       </c>
-      <c r="L89" s="17" t="s">
-        <v>822</v>
+      <c r="L89" s="14" t="s">
+        <v>819</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>428</v>
@@ -18770,16 +18852,16 @@
         <v>428</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AD89" s="6" t="s">
         <v>304</v>

--- a/data/tools.xlsx
+++ b/data/tools.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="824">
   <si>
     <t>Hexawise</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1159,9 +1159,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Using Binary Decision Diagrams for Combinatorial Test Design</t>
-  </si>
-  <si>
     <t>https://researcher.watson.ibm.com/researcher/view_group.php?id=1871</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1447,9 +1444,6 @@
   <si>
     <t>http://burtleburtle.net/bob/math/jenny.html</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Embedded Functions for Constraints and Variable Strength in Combinatorial Testing</t>
   </si>
   <si>
     <t>1, 2</t>
@@ -2158,9 +2152,6 @@
     <t>插件</t>
   </si>
   <si>
-    <t>单机命令行</t>
-  </si>
-  <si>
     <t>生成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3164,55 +3155,6 @@
         <charset val="134"/>
       </rPr>
       <t>基于距离的评估</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">for linux system call api, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试结果判断</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内核是否崩溃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>), ACTS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工具生成用例</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -8566,19 +8508,6 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>组合覆盖率计算</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -10009,22 +9938,6 @@
   </si>
   <si>
     <r>
-      <t>[1-n]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>维组合覆盖率计算</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -10112,18 +10025,6 @@
         <charset val="134"/>
       </rPr>
       <t>一到两个月</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可并行</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -10897,19 +10798,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>随机测试</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>github</t>
     </r>
     <r>
@@ -12234,13 +12122,196 @@
       <t>年</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embedded functions for test design automation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]Using Binary Decision Diagrams for Combinatorial Test Design[2]Visualization of Combinatorial Models and Test Plans[3]System Level Combinatorial Testing in Practice –
+The Concurrent Maintenance Case Study[4]Combinatorial Testing with Order Requirements</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辅助执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指定预期输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自定义测试用例描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持计算有限状态机的状态覆盖、路径覆盖和状态转换覆盖，以及组合覆盖情况</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (0.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试结果判断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内核是否崩溃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>), ACTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工具生成用例</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[1-n]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>维覆盖率计算</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试序列的覆盖，可并行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单机命令行 (CLI)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="30">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12508,7 +12579,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -12613,6 +12684,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12903,12 +12980,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.1640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="1" customWidth="1"/>
@@ -12947,7 +13024,7 @@
     <col min="37" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="24" customFormat="1" ht="35" customHeight="1">
+    <row r="1" spans="1:61" s="24" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="7" t="s">
         <v>69</v>
@@ -12989,40 +13066,40 @@
       <c r="AE1" s="22"/>
       <c r="AF1" s="22"/>
     </row>
-    <row r="2" spans="1:61" s="7" customFormat="1" ht="35" customHeight="1">
+    <row r="2" spans="1:61" s="7" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>82</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="L2" s="23" t="s">
         <v>462</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>466</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>73</v>
@@ -13037,46 +13114,46 @@
         <v>84</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="T2" s="11" t="s">
         <v>85</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="W2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>75</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AE2" s="7" t="s">
         <v>92</v>
@@ -13085,7 +13162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:61" ht="50" customHeight="1">
+    <row r="3" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -13096,66 +13173,66 @@
         <v>1994</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>482</v>
-      </c>
       <c r="AD3" s="6" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:61" ht="50" customHeight="1">
+    <row r="4" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C4" s="1">
         <v>2000</v>
@@ -13164,88 +13241,88 @@
         <v>2019</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="U4" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="U4" s="28" t="s">
+      <c r="AB4" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC4" s="28" t="s">
         <v>490</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="AC4" s="28" t="s">
-        <v>494</v>
-      </c>
       <c r="AD4" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="1:61" ht="50" customHeight="1">
+    <row r="5" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -13254,47 +13331,47 @@
         <v>2000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K5" s="1">
         <v>2</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AE5" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="1:61" ht="50" customHeight="1">
+    <row r="6" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>15</v>
       </c>
@@ -13305,56 +13382,56 @@
         <v>2002</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="U6" s="28" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AD6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:61" ht="50" customHeight="1">
+    <row r="7" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>51</v>
       </c>
@@ -13368,52 +13445,52 @@
         <v>2009</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB7" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="L7" s="14" t="s">
+      <c r="AC7" s="28" t="s">
         <v>502</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="AC7" s="28" t="s">
-        <v>506</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>57</v>
@@ -13423,7 +13500,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:61" ht="50" customHeight="1">
+    <row r="8" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>43</v>
       </c>
@@ -13435,52 +13512,52 @@
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K8" s="1">
         <v>2</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="U8" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="U8" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>39</v>
@@ -13489,10 +13566,10 @@
         <v>78</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="AC8" s="12"/>
       <c r="AD8" s="1" t="s">
@@ -13500,12 +13577,12 @@
       </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="9" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1">
+    <row r="9" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -13514,55 +13591,55 @@
         <v>2002</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:61" ht="50" customHeight="1">
+    <row r="10" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>51</v>
       </c>
@@ -13574,49 +13651,49 @@
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K10" s="1">
         <v>2</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="U10" s="28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AB10" s="13" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AC10" s="13"/>
       <c r="AD10" s="28" t="s">
@@ -13624,10 +13701,10 @@
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
-    <row r="11" spans="1:61" ht="50" customHeight="1">
+    <row r="11" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>17</v>
       </c>
@@ -13638,71 +13715,71 @@
         <v>2003</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="K11" s="1">
         <v>2</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="U11" s="28" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="28" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AE11" s="28" t="s">
-        <v>247</v>
+        <v>815</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
-    <row r="12" spans="1:61" ht="50" customHeight="1">
+    <row r="12" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C12" s="1">
         <v>2003</v>
@@ -13711,64 +13788,64 @@
         <v>2005</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AC12" s="28" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AD12" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
-    <row r="13" spans="1:61" ht="50" customHeight="1">
+    <row r="13" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>59</v>
@@ -13777,55 +13854,55 @@
         <v>2004</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AD13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AE13" s="2"/>
     </row>
-    <row r="14" spans="1:61" ht="50" customHeight="1">
+    <row r="14" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -13835,34 +13912,34 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -13871,22 +13948,22 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="V14" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AE14" s="10"/>
       <c r="AF14" s="3"/>
@@ -13920,9 +13997,9 @@
       <c r="BH14" s="3"/>
       <c r="BI14" s="3"/>
     </row>
-    <row r="15" spans="1:61" ht="50" customHeight="1">
+    <row r="15" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>80</v>
@@ -13934,71 +14011,71 @@
         <v>2010</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="U15" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AD15" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AE15" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
-    <row r="16" spans="1:61" ht="50" customHeight="1">
+    <row r="16" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
@@ -14007,65 +14084,65 @@
         <v>2006</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="W16" s="29" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AD16" s="10" t="s">
         <v>81</v>
       </c>
       <c r="AE16" s="10"/>
     </row>
-    <row r="17" spans="1:61" ht="50" customHeight="1">
+    <row r="17" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C17" s="1">
         <v>2006</v>
@@ -14074,64 +14151,64 @@
         <v>2009</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U17" s="28" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC17" s="28" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AD17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AE17" s="2"/>
     </row>
-    <row r="18" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1">
+    <row r="18" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>80</v>
@@ -14143,63 +14220,63 @@
         <v>2018</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="AD18" s="28" t="s">
         <v>89</v>
@@ -14208,7 +14285,7 @@
         <v>88</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -14240,63 +14317,63 @@
       <c r="BH18" s="1"/>
       <c r="BI18" s="1"/>
     </row>
-    <row r="19" spans="1:61" ht="50" customHeight="1">
+    <row r="19" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C19" s="1">
         <v>2007</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K19" s="1">
         <v>2</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U19" s="28" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="W19" s="20" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AE19" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="50" customHeight="1">
+    <row r="20" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>36</v>
       </c>
@@ -14310,72 +14387,72 @@
         <v>2016</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="U20" s="28" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="AD20" s="28" t="s">
         <v>90</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1">
+    <row r="21" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>61</v>
@@ -14385,48 +14462,48 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -14470,9 +14547,9 @@
       <c r="BH21" s="1"/>
       <c r="BI21" s="1"/>
     </row>
-    <row r="22" spans="1:61" ht="50" customHeight="1">
+    <row r="22" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
@@ -14481,52 +14558,52 @@
         <v>2008</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AE22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AF22" s="28" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
-    <row r="23" spans="1:61" ht="79">
+    <row r="23" spans="1:61" ht="79" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>124</v>
       </c>
@@ -14540,76 +14617,76 @@
         <v>2017</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>126</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>127</v>
       </c>
       <c r="L23" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="AC23" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="AD23" s="2" t="s">
         <v>129</v>
       </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
-    <row r="24" spans="1:61" s="2" customFormat="1" ht="50" customHeight="1">
+    <row r="24" spans="1:61" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>47</v>
@@ -14619,34 +14696,34 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -14655,19 +14732,19 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="28" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
@@ -14677,7 +14754,7 @@
         <v>91</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
@@ -14705,7 +14782,7 @@
       <c r="BH24" s="1"/>
       <c r="BI24" s="1"/>
     </row>
-    <row r="25" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1">
+    <row r="25" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>24</v>
       </c>
@@ -14719,80 +14796,80 @@
         <v>2019</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>77</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="28" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="AB25" s="28" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="AC25" s="28" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AD25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
@@ -14824,9 +14901,9 @@
       <c r="BH25" s="2"/>
       <c r="BI25" s="2"/>
     </row>
-    <row r="26" spans="1:61" ht="50" customHeight="1">
+    <row r="26" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>63</v>
@@ -14835,46 +14912,46 @@
         <v>2009</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AE26" s="2" t="s">
         <v>5</v>
@@ -14905,9 +14982,9 @@
       <c r="BH26" s="3"/>
       <c r="BI26" s="3"/>
     </row>
-    <row r="27" spans="1:61" ht="62">
+    <row r="27" spans="1:61" ht="62" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>111</v>
@@ -14919,61 +14996,61 @@
         <v>2019</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="U27" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="V27" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AB27" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="AC27" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>604</v>
       </c>
       <c r="AD27" s="2" t="s">
         <v>112</v>
       </c>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
-    <row r="28" spans="1:61" ht="31">
+    <row r="28" spans="1:61" ht="31" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>121</v>
@@ -14985,56 +15062,56 @@
         <v>2019</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>122</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K28" s="1">
         <v>2</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U28" s="28" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AA28" s="30" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AD28" s="2" t="s">
         <v>123</v>
       </c>
       <c r="AE28" s="2"/>
     </row>
-    <row r="29" spans="1:61" ht="50" customHeight="1">
+    <row r="29" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>23</v>
       </c>
@@ -15045,53 +15122,53 @@
         <v>2010</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U29" s="28" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AD29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" spans="1:61" ht="50" customHeight="1">
+    <row r="30" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>8</v>
       </c>
@@ -15102,46 +15179,46 @@
         <v>2010</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="K30" s="1">
         <v>2</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U30" s="28" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="AD30" s="28" t="s">
         <v>93</v>
@@ -15150,9 +15227,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:61" ht="50" customHeight="1">
+    <row r="31" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>48</v>
@@ -15161,46 +15238,46 @@
         <v>2010</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K31" s="1">
         <v>2</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AB31" s="17" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="AC31" s="3"/>
       <c r="AD31" s="28" t="s">
@@ -15208,15 +15285,15 @@
       </c>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="32" spans="1:61" ht="47">
+    <row r="32" spans="1:61" ht="47" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C32" s="2">
         <v>2010</v>
@@ -15225,73 +15302,73 @@
         <v>2019</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>132</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="U32" s="28" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Y32" s="28" t="s">
         <v>147</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AD32" s="28" t="s">
         <v>148</v>
       </c>
       <c r="AE32" s="2"/>
     </row>
-    <row r="33" spans="1:32" ht="31">
+    <row r="33" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C33" s="1">
         <v>2010</v>
@@ -15300,58 +15377,58 @@
         <v>2014</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>624</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="K33" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AD33" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AE33" s="2"/>
     </row>
-    <row r="34" spans="1:32" ht="50" customHeight="1">
+    <row r="34" spans="1:32" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>66</v>
@@ -15360,57 +15437,57 @@
         <v>2011</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:32" s="12" customFormat="1" ht="50" customHeight="1">
+    <row r="35" spans="1:32" s="12" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>68</v>
@@ -15419,35 +15496,35 @@
         <v>2011</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="J35" s="17"/>
       <c r="L35" s="18"/>
       <c r="O35" s="12" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="Y35" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AD35" s="26"/>
       <c r="AE35" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF35" s="13"/>
     </row>
-    <row r="36" spans="1:32" ht="93.5">
+    <row r="36" spans="1:32" ht="93.5" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>102</v>
       </c>
@@ -15458,69 +15535,69 @@
         <v>2011</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="W36" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="X36" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>633</v>
-      </c>
       <c r="AA36" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AD36" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>171</v>
+        <v>816</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="108">
+    <row r="37" spans="1:32" ht="108" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>106</v>
@@ -15532,79 +15609,79 @@
         <v>2012</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>107</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>108</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="U37" s="28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>165</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="AD37" s="2" t="s">
         <v>110</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AF37" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="31">
+    <row r="38" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A38" s="34" t="s">
         <v>113</v>
       </c>
@@ -15618,61 +15695,61 @@
         <v>2017</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>115</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>116</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="AD38" s="2" t="s">
         <v>117</v>
       </c>
       <c r="AE38" s="2"/>
     </row>
-    <row r="39" spans="1:32" ht="62">
+    <row r="39" spans="1:32" ht="62" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>118</v>
@@ -15681,68 +15758,68 @@
         <v>2011</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="G39" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>115</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="U39" s="28" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>119</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="AD39" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="46.5">
+    <row r="40" spans="1:32" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>134</v>
       </c>
@@ -15753,60 +15830,60 @@
         <v>2012</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>136</v>
       </c>
       <c r="L40" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="W40" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>411</v>
-      </c>
       <c r="X40" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AE40" s="2" t="s">
         <v>137</v>
       </c>
       <c r="AF40" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="77">
+    <row r="41" spans="1:32" ht="77" x14ac:dyDescent="0.3">
       <c r="A41" s="34" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>138</v>
@@ -15818,78 +15895,78 @@
         <v>2018</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>65</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="O41" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="U41" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA41" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB41" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="AD41" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE41" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF41" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="S41" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="U41" s="28" t="s">
-        <v>571</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="Y41" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA41" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="AB41" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="AC41" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="AD41" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE41" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="AF41" s="2" t="s">
-        <v>658</v>
-      </c>
     </row>
-    <row r="42" spans="1:32" s="12" customFormat="1" ht="93">
+    <row r="42" spans="1:32" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>141</v>
@@ -15901,30 +15978,30 @@
         <v>2016</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>131</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J42" s="31"/>
       <c r="L42" s="18"/>
       <c r="O42" s="12" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="S42" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="U42" s="12" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="V42" s="12" t="s">
         <v>105</v>
@@ -15933,27 +16010,27 @@
         <v>109</v>
       </c>
       <c r="Y42" s="12" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AB42" s="12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AC42" s="12" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="AD42" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AE42" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF42" s="12" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="62">
+    <row r="43" spans="1:32" ht="62" x14ac:dyDescent="0.3">
       <c r="A43" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>130</v>
@@ -15965,142 +16042,142 @@
         <v>2018</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>132</v>
       </c>
       <c r="L43" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="W43" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>670</v>
-      </c>
       <c r="X43" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>133</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="AD43" s="28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AE43" s="2"/>
     </row>
-    <row r="44" spans="1:32" ht="62">
+    <row r="44" spans="1:32" ht="62" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C44" s="1">
         <v>2013</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K44" s="1">
         <v>2</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="31">
+    <row r="45" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A45" s="34" t="s">
         <v>120</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C45" s="1">
         <v>2013</v>
@@ -16109,53 +16186,53 @@
         <v>2014</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K45" s="1">
         <v>2</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="AD45" s="2" t="s">
         <v>140</v>
       </c>
       <c r="AE45" s="2"/>
     </row>
-    <row r="46" spans="1:32" ht="46.5">
+    <row r="46" spans="1:32" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>142</v>
       </c>
@@ -16166,104 +16243,104 @@
         <v>2013</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="U46" s="28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AD46" s="28"/>
       <c r="AE46" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="12" customFormat="1" ht="62">
+    <row r="47" spans="1:32" s="12" customFormat="1" ht="62" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C47" s="12">
         <v>2013</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>131</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="L47" s="18"/>
       <c r="S47" s="12" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="U47" s="12" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="V47" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W47" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AA47" s="12" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="AD47" s="31"/>
       <c r="AE47" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF47" s="13" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="32">
+    <row r="48" spans="1:32" ht="122" x14ac:dyDescent="0.3">
       <c r="A48" s="34" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>144</v>
@@ -16275,99 +16352,99 @@
         <v>2019</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I48" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="W48" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="L48" s="16" t="s">
-        <v>687</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="U48" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>690</v>
-      </c>
       <c r="X48" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Z48" s="1" t="s">
         <v>145</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AD48" s="28" t="s">
         <v>146</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="49" spans="1:32" s="12" customFormat="1" ht="32">
+    <row r="49" spans="1:32" s="12" customFormat="1" ht="31" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C49" s="12">
         <v>2014</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L49" s="18"/>
       <c r="P49" s="12" t="s">
@@ -16378,15 +16455,15 @@
         <v>150</v>
       </c>
       <c r="AF49" s="13" t="s">
-        <v>444</v>
+        <v>819</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="31">
+    <row r="50" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C50" s="1">
         <v>2014</v>
@@ -16395,70 +16472,70 @@
         <v>2016</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="K50" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AD50" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="31">
+    <row r="51" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
         <v>151</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C51" s="1">
         <v>2015</v>
@@ -16467,61 +16544,61 @@
         <v>2018</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K51" s="1">
         <v>2</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="AD51" s="28" t="s">
         <v>153</v>
       </c>
       <c r="AE51" s="2"/>
     </row>
-    <row r="52" spans="1:32" s="12" customFormat="1" ht="123">
+    <row r="52" spans="1:32" s="12" customFormat="1" ht="123" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>154</v>
@@ -16530,38 +16607,38 @@
         <v>2015</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>104</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L52" s="18"/>
       <c r="T52" s="12" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="U52" s="12" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="AD52" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE52" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF52" s="13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="30">
+    <row r="53" spans="1:32" ht="30" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
         <v>156</v>
       </c>
@@ -16572,55 +16649,55 @@
         <v>2015</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>108</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="Y53" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AD53" s="28" t="s">
         <v>158</v>
@@ -16630,12 +16707,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:32" s="12" customFormat="1" ht="31">
+    <row r="54" spans="1:32" s="12" customFormat="1" ht="31" x14ac:dyDescent="0.3">
       <c r="A54" s="35" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C54" s="12">
         <v>2015</v>
@@ -16644,48 +16721,48 @@
         <v>2015</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="L54" s="18"/>
       <c r="S54" s="12" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="Y54" s="31"/>
       <c r="AA54" s="12" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="AB54" s="12" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AC54" s="12" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="AD54" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AE54" s="13"/>
       <c r="AF54" s="13" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="30">
+    <row r="55" spans="1:32" ht="30" x14ac:dyDescent="0.3">
       <c r="A55" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C55" s="1">
         <v>2015</v>
@@ -16694,104 +16771,104 @@
         <v>2017</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="Y55" s="28"/>
       <c r="AB55" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="AD55" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AE55" s="2"/>
     </row>
-    <row r="56" spans="1:32" ht="62">
+    <row r="56" spans="1:32" ht="62" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C56" s="1">
         <v>2016</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K56" s="1">
         <v>2</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U56" s="28" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="AD56" s="28"/>
       <c r="AE56" s="28" t="s">
@@ -16801,9 +16878,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:32" s="12" customFormat="1" ht="48">
+    <row r="57" spans="1:32" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.3">
       <c r="A57" s="35" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>22</v>
@@ -16815,53 +16892,53 @@
         <v>2017</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>104</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L57" s="18"/>
       <c r="S57" s="12" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="U57" s="12" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="W57" s="12" t="s">
         <v>128</v>
       </c>
       <c r="AA57" s="12" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="AB57" s="12" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="AC57" s="12" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AD57" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AE57" s="31"/>
       <c r="AF57" s="13" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="32">
+    <row r="58" spans="1:32" ht="32" x14ac:dyDescent="0.3">
       <c r="A58" s="34" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C58" s="2">
         <v>2016</v>
@@ -16870,63 +16947,63 @@
         <v>2018</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="K58" s="1">
         <v>2</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="AD58" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AE58" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="29">
+    <row r="59" spans="1:32" ht="29" x14ac:dyDescent="0.3">
       <c r="A59" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C59" s="1">
         <v>2017</v>
@@ -16935,72 +17012,72 @@
         <v>2017</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I59" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="AA59" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="AB59" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="AC59" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="AD59" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE59" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF59" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="L59" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="U59" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="W59" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="X59" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="AA59" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="AB59" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="AC59" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="AD59" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE59" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF59" s="2" t="s">
-        <v>729</v>
-      </c>
     </row>
-    <row r="60" spans="1:32" ht="31">
+    <row r="60" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A60" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="C60" s="1">
         <v>2017</v>
@@ -17009,61 +17086,61 @@
         <v>2018</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="K60" s="1">
         <v>2</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="AD60" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AE60" s="28"/>
       <c r="AF60" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="108.5">
+    <row r="61" spans="1:32" ht="108.5" x14ac:dyDescent="0.3">
       <c r="A61" s="34" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C61" s="1">
         <v>2017</v>
@@ -17072,64 +17149,64 @@
         <v>2018</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>727</v>
+      </c>
+      <c r="G61" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="F61" s="28" t="s">
+      <c r="H61" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L61" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="U61" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="AB61" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="G61" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="J61" s="1" t="s">
+      <c r="AC61" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="AD61" s="28" t="s">
         <v>228</v>
-      </c>
-      <c r="L61" s="14" t="s">
-        <v>734</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="U61" s="28" t="s">
-        <v>571</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="X61" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="AB61" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="AC61" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="AD61" s="28" t="s">
-        <v>229</v>
       </c>
       <c r="AE61" s="28"/>
       <c r="AF61" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="46.5">
+    <row r="62" spans="1:32" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A62" s="34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>162</v>
@@ -17141,69 +17218,69 @@
         <v>2019</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>163</v>
       </c>
       <c r="L62" s="14" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AA62" s="3" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AD62" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AE62" s="28" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:32" s="12" customFormat="1" ht="108">
+    <row r="63" spans="1:32" s="12" customFormat="1" ht="108" x14ac:dyDescent="0.3">
       <c r="A63" s="35" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>167</v>
@@ -17212,26 +17289,26 @@
         <v>2018</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="L63" s="18"/>
       <c r="S63" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="U63" s="32" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="V63" s="12" t="s">
         <v>164</v>
@@ -17240,19 +17317,19 @@
         <v>128</v>
       </c>
       <c r="AD63" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE63" s="31" t="s">
         <v>168</v>
       </c>
       <c r="AF63" s="13"/>
     </row>
-    <row r="64" spans="1:32" s="12" customFormat="1" ht="31">
+    <row r="64" spans="1:32" s="12" customFormat="1" ht="31" x14ac:dyDescent="0.3">
       <c r="A64" s="35" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C64" s="12">
         <v>2018</v>
@@ -17261,114 +17338,114 @@
         <v>2019</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="L64" s="18"/>
       <c r="S64" s="12" t="s">
-        <v>747</v>
+        <v>820</v>
       </c>
       <c r="U64" s="31" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="AA64" s="12" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="AB64" s="12" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="AC64" s="12" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="AD64" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE64" s="31"/>
+      <c r="AF64" s="36" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" ht="79" x14ac:dyDescent="0.3">
+      <c r="A65" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="AE64" s="31"/>
-      <c r="AF64" s="13" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" ht="79">
-      <c r="A65" s="34" t="s">
-        <v>213</v>
-      </c>
       <c r="B65" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C65" s="3">
         <v>2018</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L65" s="14" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Y65" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA65" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD65" s="28" t="s">
         <v>216</v>
-      </c>
-      <c r="AA65" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="AD65" s="28" t="s">
-        <v>217</v>
       </c>
       <c r="AE65" s="28"/>
     </row>
-    <row r="66" spans="1:32" ht="29">
+    <row r="66" spans="1:32" ht="29" x14ac:dyDescent="0.3">
       <c r="A66" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C66" s="2">
         <v>2018</v>
@@ -17377,58 +17454,58 @@
         <v>2018</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>132</v>
       </c>
       <c r="L66" s="14" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AD66" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AE66" s="28"/>
     </row>
-    <row r="67" spans="1:32" ht="46.5">
+    <row r="67" spans="1:32" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A67" s="34" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C67" s="2">
         <v>2018</v>
@@ -17437,58 +17514,58 @@
         <v>2018</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="L67" s="16" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="AC67" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AD67" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AE67" s="28"/>
     </row>
-    <row r="68" spans="1:32" ht="109">
+    <row r="68" spans="1:32" ht="109" x14ac:dyDescent="0.3">
       <c r="A68" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="C68" s="1">
         <v>2019</v>
@@ -17497,177 +17574,180 @@
         <v>2019</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="W68" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="AC68" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="AD68" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AE68" s="28" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="31">
+    <row r="69" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A69" s="34" t="s">
         <v>169</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="G69" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>766</v>
+        <v>759</v>
+      </c>
+      <c r="J69" s="37" t="s">
+        <v>822</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>170</v>
       </c>
       <c r="L69" s="14" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Y69" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD69" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AE69" s="2"/>
     </row>
-    <row r="70" spans="1:32" ht="50" customHeight="1">
+    <row r="70" spans="1:32" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="K70" s="1">
         <v>2</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="Y70" s="1" t="s">
         <v>98</v>
@@ -17677,74 +17757,74 @@
         <v>96</v>
       </c>
       <c r="AF70" s="2" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="31">
+    <row r="71" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C71" s="1">
         <v>2009</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K71" s="1">
         <v>2</v>
       </c>
       <c r="L71" s="14" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U71" s="28" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="31">
+    <row r="72" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C72" s="1">
         <v>2013</v>
@@ -17753,63 +17833,63 @@
         <v>2018</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L72" s="14" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="X72" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="AB72" s="1" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="AD72" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="31">
+    <row r="73" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C73" s="1">
         <v>2014</v>
@@ -17818,60 +17898,60 @@
         <v>2014</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H73" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="J73" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K73" s="1">
         <v>2</v>
       </c>
       <c r="L73" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="AD73" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AF73" s="2" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="31">
+    <row r="74" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C74" s="1">
         <v>2014</v>
@@ -17880,60 +17960,57 @@
         <v>2014</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="K74" s="1">
         <v>2</v>
       </c>
       <c r="L74" s="14" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA74" s="1" t="s">
-        <v>781</v>
+        <v>492</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="AC74" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="31">
+    <row r="75" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C75" s="1">
         <v>2014</v>
@@ -17942,57 +18019,57 @@
         <v>2014</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F75" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L75" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="AC75" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="AD75" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="G75" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="L75" s="14" t="s">
-        <v>666</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="V75" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB75" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="AC75" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="AD75" s="6" t="s">
-        <v>316</v>
-      </c>
     </row>
-    <row r="76" spans="1:32" ht="31">
+    <row r="76" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C76" s="1">
         <v>2015</v>
@@ -18001,66 +18078,66 @@
         <v>2016</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K76" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L76" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U76" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA76" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="AB76" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC76" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="AD76" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="L76" s="14" t="s">
-        <v>784</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="U76" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="V76" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="W76" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="X76" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA76" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="AB76" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC76" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="AD76" s="6" t="s">
-        <v>272</v>
-      </c>
     </row>
-    <row r="77" spans="1:32" ht="32">
+    <row r="77" spans="1:32" ht="32" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="C77" s="1">
         <v>2015</v>
@@ -18069,69 +18146,69 @@
         <v>2015</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L77" s="14" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AA77" s="1" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="AB77" s="1" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="AD77" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF77" s="2" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
     </row>
-    <row r="78" spans="1:32" ht="31">
+    <row r="78" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C78" s="1">
         <v>2015</v>
@@ -18140,63 +18217,63 @@
         <v>2016</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="K78" s="1">
         <v>1</v>
       </c>
       <c r="L78" s="14" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U78" s="28" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AA78" s="1" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="AC78" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="AD78" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="79" spans="1:32" s="12" customFormat="1" ht="46">
+    <row r="79" spans="1:32" s="12" customFormat="1" ht="46" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C79" s="12">
         <v>2015</v>
@@ -18205,45 +18282,45 @@
         <v>2015</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="L79" s="18"/>
       <c r="S79" s="12" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="U79" s="12" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="AB79" s="12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AC79" s="12" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="AD79" s="26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AE79" s="26"/>
       <c r="AF79" s="13"/>
     </row>
-    <row r="80" spans="1:32" ht="31">
+    <row r="80" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C80" s="1">
         <v>2015</v>
@@ -18252,60 +18329,60 @@
         <v>2015</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="K80" s="1">
         <v>2</v>
       </c>
       <c r="L80" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="AD80" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="31">
+    <row r="81" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C81" s="1">
         <v>2016</v>
@@ -18314,57 +18391,57 @@
         <v>2016</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H81" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I81" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I81" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="J81" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L81" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="AC81" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="AD81" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="32">
+    <row r="82" spans="1:32" ht="32" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C82" s="1">
         <v>2016</v>
@@ -18373,72 +18450,72 @@
         <v>2017</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="K82" s="1">
         <v>2</v>
       </c>
       <c r="L82" s="14" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AA82" s="1" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="AC82" s="1" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="AD82" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AF82" s="2" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
-    <row r="83" spans="1:32" ht="31">
+    <row r="83" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C83" s="1">
         <v>2016</v>
@@ -18447,60 +18524,60 @@
         <v>2017</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K83" s="1">
         <v>3</v>
       </c>
       <c r="L83" s="14" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="AD83" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AE83" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="31">
+    <row r="84" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C84" s="1">
         <v>2017</v>
@@ -18509,57 +18586,57 @@
         <v>2017</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K84" s="1">
         <v>2</v>
       </c>
       <c r="L84" s="14" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U84" s="28" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="31">
+    <row r="85" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C85" s="1">
         <v>2017</v>
@@ -18568,66 +18645,66 @@
         <v>2017</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>395</v>
+        <v>823</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K85" s="1">
         <v>2</v>
       </c>
       <c r="L85" s="14" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="U85" s="28" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AA85" s="1" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="AD85" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="31">
+    <row r="86" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C86" s="1">
         <v>2018</v>
@@ -18636,57 +18713,57 @@
         <v>2018</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L86" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="U86" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="V86" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AB86" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="AC86" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AD86" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="G86" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="L86" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="U86" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="V86" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="AB86" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="AC86" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="AD86" s="6" t="s">
-        <v>279</v>
-      </c>
     </row>
-    <row r="87" spans="1:32" ht="46.5">
+    <row r="87" spans="1:32" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C87" s="1">
         <v>2018</v>
@@ -18695,60 +18772,60 @@
         <v>2018</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K87" s="1">
         <v>2</v>
       </c>
       <c r="L87" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="AA87" s="1" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="88" spans="1:32" ht="31">
+    <row r="88" spans="1:32" ht="31" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C88" s="1">
         <v>2018</v>
@@ -18757,63 +18834,63 @@
         <v>2019</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L88" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="U88" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="V88" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="W88" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB88" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="AC88" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="AD88" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="G88" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="K88" s="1" t="s">
+    </row>
+    <row r="89" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="L88" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="U88" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="V88" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="W88" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="X88" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB88" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="AC88" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="AD88" s="6" t="s">
+      <c r="B89" s="1" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="89" spans="1:32" ht="31">
-      <c r="A89" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C89" s="1">
         <v>2018</v>
@@ -18822,49 +18899,49 @@
         <v>2018</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H89" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I89" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="J89" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="K89" s="1">
         <v>1</v>
       </c>
       <c r="L89" s="14" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="AD89" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/data/tools.xlsx
+++ b/data/tools.xlsx
@@ -699,10 +699,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MS Office</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -3194,10 +3190,6 @@
   </si>
   <si>
     <t>JCUnit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERIS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -12305,13 +12297,21 @@
   </si>
   <si>
     <t>单机命令行 (CLI)</t>
+  </si>
+  <si>
+    <t>Eris</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microsoft Office</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12980,12 +12980,12 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BI89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y70" sqref="Y70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="14.1640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="1" customWidth="1"/>
@@ -13024,7 +13024,7 @@
     <col min="37" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="24" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" s="24" customFormat="1" ht="35" customHeight="1">
       <c r="A1" s="10"/>
       <c r="B1" s="7" t="s">
         <v>69</v>
@@ -13066,40 +13066,40 @@
       <c r="AE1" s="22"/>
       <c r="AF1" s="22"/>
     </row>
-    <row r="2" spans="1:61" s="7" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" s="7" customFormat="1" ht="35" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>82</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="23" t="s">
         <v>460</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>462</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>73</v>
@@ -13114,46 +13114,46 @@
         <v>84</v>
       </c>
       <c r="Q2" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="S2" s="11" t="s">
         <v>463</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>465</v>
       </c>
       <c r="T2" s="11" t="s">
         <v>85</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="W2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="Z2" s="8" t="s">
         <v>75</v>
       </c>
       <c r="AA2" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="AC2" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="AE2" s="7" t="s">
         <v>92</v>
@@ -13162,7 +13162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:61" ht="50" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
@@ -13173,66 +13173,66 @@
         <v>1994</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="AD3" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>79</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" ht="50" customHeight="1">
       <c r="A4" s="34" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C4" s="1">
         <v>2000</v>
@@ -13241,88 +13241,88 @@
         <v>2019</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="O4" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="U4" s="28" t="s">
         <v>484</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="T4" s="2" t="s">
+      <c r="V4" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="U4" s="28" t="s">
+      <c r="W4" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="X4" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AC4" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="AC4" s="28" t="s">
-        <v>490</v>
-      </c>
       <c r="AD4" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:61" ht="50" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -13331,47 +13331,47 @@
         <v>2000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K5" s="1">
         <v>2</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AE5" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" ht="50" customHeight="1">
       <c r="A6" s="34" t="s">
         <v>15</v>
       </c>
@@ -13382,56 +13382,56 @@
         <v>2002</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U6" s="28" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AD6" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AE6" s="2"/>
     </row>
-    <row r="7" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" ht="50" customHeight="1">
       <c r="A7" s="34" t="s">
         <v>51</v>
       </c>
@@ -13445,52 +13445,52 @@
         <v>2009</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="L7" s="14" t="s">
+      <c r="V7" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="W7" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="U7" s="2" t="s">
+      <c r="X7" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB7" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="W7" s="2" t="s">
+      <c r="AC7" s="28" t="s">
         <v>500</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="AC7" s="28" t="s">
-        <v>502</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>57</v>
@@ -13500,7 +13500,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:61" ht="50" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>43</v>
       </c>
@@ -13512,52 +13512,52 @@
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K8" s="1">
         <v>2</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="U8" s="28" t="s">
         <v>505</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="U8" s="28" t="s">
+      <c r="W8" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>39</v>
@@ -13566,10 +13566,10 @@
         <v>78</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AC8" s="12"/>
       <c r="AD8" s="1" t="s">
@@ -13577,12 +13577,12 @@
       </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
-    <row r="9" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -13591,55 +13591,55 @@
         <v>2002</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="10" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" ht="50" customHeight="1">
       <c r="A10" s="34" t="s">
         <v>51</v>
       </c>
@@ -13651,60 +13651,60 @@
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K10" s="1">
         <v>2</v>
       </c>
       <c r="L10" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="U10" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA10" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="S10" s="1" t="s">
+      <c r="AB10" s="13" t="s">
         <v>520</v>
-      </c>
-      <c r="U10" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="AB10" s="13" t="s">
-        <v>522</v>
       </c>
       <c r="AC10" s="13"/>
       <c r="AD10" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
-    <row r="11" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:61" ht="50" customHeight="1">
       <c r="A11" s="34" t="s">
         <v>17</v>
       </c>
@@ -13715,71 +13715,71 @@
         <v>2003</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="K11" s="1">
         <v>2</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S11" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="U11" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA11" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="U11" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AE11" s="28" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="12" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:61" ht="50" customHeight="1">
       <c r="A12" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="1">
         <v>2003</v>
@@ -13788,64 +13788,64 @@
         <v>2005</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L12" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="AC12" s="28" t="s">
         <v>533</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="AC12" s="28" t="s">
-        <v>535</v>
-      </c>
       <c r="AD12" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AE12" s="10"/>
       <c r="AF12" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
-    <row r="13" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:61" ht="50" customHeight="1">
       <c r="A13" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>59</v>
@@ -13854,55 +13854,55 @@
         <v>2004</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="L13" s="16" t="s">
+      <c r="V13" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AA13" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="AD13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AE13" s="2"/>
     </row>
-    <row r="14" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:61" ht="50" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -13912,34 +13912,34 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -13948,22 +13948,22 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AE14" s="10"/>
       <c r="AF14" s="3"/>
@@ -13997,9 +13997,9 @@
       <c r="BH14" s="3"/>
       <c r="BI14" s="3"/>
     </row>
-    <row r="15" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:61" ht="50" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>80</v>
@@ -14011,71 +14011,71 @@
         <v>2010</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="U15" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="X15" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD15" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE15" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF15" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="AA15" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="AB15" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="AD15" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE15" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF15" s="2" t="s">
-        <v>550</v>
-      </c>
     </row>
-    <row r="16" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:61" ht="50" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
@@ -14084,65 +14084,65 @@
         <v>2006</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W16" s="29" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AD16" s="10" t="s">
         <v>81</v>
       </c>
       <c r="AE16" s="10"/>
     </row>
-    <row r="17" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:61" ht="50" customHeight="1">
       <c r="A17" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C17" s="1">
         <v>2006</v>
@@ -14151,64 +14151,64 @@
         <v>2009</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U17" s="28" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AC17" s="28" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AD17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AE17" s="2"/>
     </row>
-    <row r="18" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1">
       <c r="A18" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>80</v>
@@ -14220,63 +14220,63 @@
         <v>2018</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="28" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="V18" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="AC18" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="AD18" s="28" t="s">
         <v>89</v>
@@ -14285,7 +14285,7 @@
         <v>88</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -14317,63 +14317,63 @@
       <c r="BH18" s="1"/>
       <c r="BI18" s="1"/>
     </row>
-    <row r="19" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:61" ht="50" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C19" s="1">
         <v>2007</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K19" s="1">
         <v>2</v>
       </c>
       <c r="L19" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U19" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="W19" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U19" s="28" t="s">
+      <c r="X19" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="W19" s="20" t="s">
-        <v>568</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="AE19" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:61" ht="50" customHeight="1">
       <c r="A20" s="34" t="s">
         <v>36</v>
       </c>
@@ -14387,72 +14387,72 @@
         <v>2016</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="U20" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="W20" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>488</v>
-      </c>
       <c r="X20" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>86</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AD20" s="28" t="s">
         <v>90</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="21" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>61</v>
@@ -14462,48 +14462,48 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -14547,9 +14547,9 @@
       <c r="BH21" s="1"/>
       <c r="BI21" s="1"/>
     </row>
-    <row r="22" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:61" ht="50" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
@@ -14558,57 +14558,57 @@
         <v>2008</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AF22" s="28" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
-    <row r="23" spans="1:61" ht="79" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:61" ht="79">
       <c r="A23" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C23" s="1">
         <v>2008</v>
@@ -14617,76 +14617,76 @@
         <v>2017</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="L23" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="M23" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="S23" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" s="14" t="s">
+      <c r="U23" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA23" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="S23" s="3" t="s">
+      <c r="AB23" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="U23" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA23" s="2" t="s">
+      <c r="AC23" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="AB23" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="AD23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
-    <row r="24" spans="1:61" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:61" s="2" customFormat="1" ht="50" customHeight="1">
       <c r="A24" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>47</v>
@@ -14696,34 +14696,34 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -14732,19 +14732,19 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="28" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
@@ -14754,7 +14754,7 @@
         <v>91</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
@@ -14782,7 +14782,7 @@
       <c r="BH24" s="1"/>
       <c r="BI24" s="1"/>
     </row>
-    <row r="25" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:61" s="3" customFormat="1" ht="50" customHeight="1">
       <c r="A25" s="34" t="s">
         <v>24</v>
       </c>
@@ -14796,80 +14796,80 @@
         <v>2019</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>378</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>77</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="28" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Y25" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AB25" s="28" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AC25" s="28" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AD25" s="2" t="s">
         <v>62</v>
       </c>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
@@ -14901,9 +14901,9 @@
       <c r="BH25" s="2"/>
       <c r="BI25" s="2"/>
     </row>
-    <row r="26" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:61" ht="50" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>63</v>
@@ -14912,46 +14912,46 @@
         <v>2009</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AE26" s="2" t="s">
         <v>5</v>
@@ -14982,12 +14982,12 @@
       <c r="BH26" s="3"/>
       <c r="BI26" s="3"/>
     </row>
-    <row r="27" spans="1:61" ht="62" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:61" ht="62">
       <c r="A27" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="2">
         <v>2009</v>
@@ -14996,64 +14996,64 @@
         <v>2019</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="K27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="U27" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="P27" s="1" t="s">
+      <c r="V27" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AB27" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="U27" s="2" t="s">
+      <c r="AC27" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="AD27" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="28" spans="1:61" ht="31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:61" ht="31">
       <c r="A28" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="1">
         <v>2009</v>
@@ -15062,56 +15062,56 @@
         <v>2019</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K28" s="1">
         <v>2</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U28" s="28" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AA28" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="AC28" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="AB28" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="AC28" s="1" t="s">
-        <v>604</v>
-      </c>
       <c r="AD28" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE28" s="2"/>
     </row>
-    <row r="29" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:61" ht="50" customHeight="1">
       <c r="A29" s="34" t="s">
         <v>23</v>
       </c>
@@ -15122,53 +15122,53 @@
         <v>2010</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U29" s="28" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AD29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AE29" s="2"/>
     </row>
-    <row r="30" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:61" ht="50" customHeight="1">
       <c r="A30" s="34" t="s">
         <v>8</v>
       </c>
@@ -15179,46 +15179,46 @@
         <v>2010</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K30" s="1">
         <v>2</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U30" s="28" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AD30" s="28" t="s">
         <v>93</v>
@@ -15227,9 +15227,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:61" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:61" ht="50" customHeight="1">
       <c r="A31" s="34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>48</v>
@@ -15238,46 +15238,46 @@
         <v>2010</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K31" s="1">
         <v>2</v>
       </c>
       <c r="L31" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB31" s="17" t="s">
         <v>610</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="AB31" s="17" t="s">
-        <v>612</v>
       </c>
       <c r="AC31" s="3"/>
       <c r="AD31" s="28" t="s">
@@ -15285,15 +15285,15 @@
       </c>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="32" spans="1:61" ht="47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:61" ht="47">
       <c r="A32" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C32" s="2">
         <v>2010</v>
@@ -15302,73 +15302,73 @@
         <v>2019</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R32" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="U32" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y32" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA32" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="U32" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="W32" s="1" t="s">
+      <c r="AB32" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="X32" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="Y32" s="28" t="s">
+      <c r="AC32" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="AD32" s="28" t="s">
         <v>147</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="AC32" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="AD32" s="28" t="s">
-        <v>148</v>
       </c>
       <c r="AE32" s="2"/>
     </row>
-    <row r="33" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" ht="31">
       <c r="A33" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C33" s="1">
         <v>2010</v>
@@ -15377,58 +15377,58 @@
         <v>2014</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I33" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="U33" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AD33" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AE33" s="2"/>
     </row>
-    <row r="34" spans="1:32" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" ht="50" customHeight="1">
       <c r="A34" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>66</v>
@@ -15437,57 +15437,57 @@
         <v>2011</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>67</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:32" s="12" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" s="12" customFormat="1" ht="50" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>68</v>
@@ -15496,111 +15496,111 @@
         <v>2011</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J35" s="17"/>
       <c r="L35" s="18"/>
       <c r="O35" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="Y35" s="12" t="s">
         <v>42</v>
       </c>
       <c r="AD35" s="26"/>
       <c r="AE35" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF35" s="13"/>
     </row>
-    <row r="36" spans="1:32" ht="93.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" ht="93.5">
       <c r="A36" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C36" s="1">
         <v>2011</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I36" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="Q36" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O36" s="1" t="s">
+      <c r="U36" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="W36" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="Q36" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="S36" s="1" t="s">
+      <c r="X36" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="U36" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>629</v>
-      </c>
       <c r="AA36" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AD36" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="108" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" ht="108">
       <c r="A37" s="34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="1">
         <v>2011</v>
@@ -15609,84 +15609,84 @@
         <v>2012</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="L37" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="P37" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L37" s="14" t="s">
+      <c r="S37" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="P37" s="1" t="s">
+      <c r="U37" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="W37" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="X37" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z37" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="U37" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="W37" s="1" t="s">
+      <c r="AA37" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="X37" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z37" s="1" t="s">
+      <c r="AB37" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="AA37" s="1" t="s">
+      <c r="AC37" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="AB37" s="1" t="s">
+      <c r="AD37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE37" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF37" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="AC37" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="AD37" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE37" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF37" s="2" t="s">
-        <v>639</v>
-      </c>
     </row>
-    <row r="38" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" ht="31">
       <c r="A38" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C38" s="1">
         <v>2011</v>
@@ -15695,198 +15695,198 @@
         <v>2017</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H38" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="U38" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="J38" s="1" t="s">
+      <c r="V38" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB38" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="U38" s="1" t="s">
+      <c r="AC38" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="Z38" s="1" t="s">
+      <c r="AD38" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="AB38" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="AC38" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="AD38" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="AE38" s="2"/>
     </row>
-    <row r="39" spans="1:32" ht="62" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" ht="62">
       <c r="A39" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1">
         <v>2011</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G39" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="G39" s="20" t="s">
-        <v>378</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="U39" s="28" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AD39" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" ht="46.5">
       <c r="A40" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="C40" s="1">
         <v>2012</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE40" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L40" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="AD40" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="AE40" s="2" t="s">
+      <c r="AF40" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" ht="77">
+      <c r="A41" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="AF40" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" ht="77" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C41" s="1">
         <v>2012</v>
@@ -15895,81 +15895,81 @@
         <v>2018</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>65</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="M41" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="U41" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA41" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O41" s="1" t="s">
+      <c r="AB41" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="AC41" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="U41" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y41" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA41" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="AB41" s="1" t="s">
+      <c r="AD41" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE41" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="AF41" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="AC41" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AD41" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE41" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="AF41" s="2" t="s">
-        <v>654</v>
-      </c>
     </row>
-    <row r="42" spans="1:32" s="12" customFormat="1" ht="93" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" s="12" customFormat="1" ht="93">
       <c r="A42" s="35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" s="12">
         <v>2012</v>
@@ -15978,62 +15978,62 @@
         <v>2016</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J42" s="31"/>
       <c r="L42" s="18"/>
       <c r="O42" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="U42" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="W42" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y42" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB42" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC42" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="AD42" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE42" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF42" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="S42" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="U42" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="V42" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="W42" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y42" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="AB42" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="AC42" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="AD42" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE42" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF42" s="12" t="s">
-        <v>658</v>
-      </c>
     </row>
-    <row r="43" spans="1:32" ht="62" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" ht="62">
       <c r="A43" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="2">
         <v>2013</v>
@@ -16042,142 +16042,142 @@
         <v>2018</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G43" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="I43" s="1" t="s">
+      <c r="L43" s="14" t="s">
         <v>660</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="M43" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y43" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L43" s="14" t="s">
-        <v>662</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="S43" s="1" t="s">
+      <c r="Z43" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA43" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="U43" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="W43" s="1" t="s">
+      <c r="AB43" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="X43" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z43" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA43" s="1" t="s">
+      <c r="AC43" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="AB43" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="AC43" s="1" t="s">
-        <v>669</v>
-      </c>
       <c r="AD43" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AE43" s="2"/>
     </row>
-    <row r="44" spans="1:32" ht="62" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" ht="62">
       <c r="A44" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C44" s="1">
         <v>2013</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G44" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="G44" s="20" t="s">
-        <v>378</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K44" s="1">
         <v>2</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" ht="31">
       <c r="A45" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C45" s="1">
         <v>2013</v>
@@ -16186,164 +16186,164 @@
         <v>2014</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K45" s="1">
         <v>2</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE45" s="2"/>
     </row>
-    <row r="46" spans="1:32" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" ht="46.5">
       <c r="A46" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="C46" s="1">
         <v>2013</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>676</v>
-      </c>
       <c r="L46" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U46" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="W46" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="X46" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AD46" s="28"/>
       <c r="AE46" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="12" customFormat="1" ht="62" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" s="12" customFormat="1" ht="62">
       <c r="A47" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C47" s="12">
         <v>2013</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L47" s="18"/>
       <c r="S47" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U47" s="12" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="V47" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W47" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA47" s="12" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AD47" s="31"/>
       <c r="AE47" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF47" s="13" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="122" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" ht="122">
       <c r="A48" s="34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C48" s="2">
         <v>2013</v>
@@ -16352,118 +16352,118 @@
         <v>2019</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I48" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L48" s="16" t="s">
         <v>681</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="M48" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="P48" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="K48" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="L48" s="16" t="s">
+      <c r="Q48" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="W48" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="M48" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="P48" s="1" t="s">
+      <c r="X48" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA48" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="Q48" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="U48" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="W48" s="2" t="s">
+      <c r="AB48" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="X48" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="Z48" s="1" t="s">
+      <c r="AC48" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="AD48" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="AA48" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="AB48" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="AC48" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="AD48" s="28" t="s">
-        <v>146</v>
-      </c>
       <c r="AE48" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" s="12" customFormat="1" ht="31">
+      <c r="A49" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32" s="12" customFormat="1" ht="31" x14ac:dyDescent="0.3">
-      <c r="A49" s="31" t="s">
-        <v>451</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>334</v>
       </c>
       <c r="C49" s="12">
         <v>2014</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L49" s="18"/>
       <c r="P49" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD49" s="31"/>
       <c r="AE49" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF49" s="13" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" ht="31">
       <c r="A50" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C50" s="1">
         <v>2014</v>
@@ -16472,70 +16472,70 @@
         <v>2016</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U50" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="AB50" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="X50" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="AA50" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="AB50" s="1" t="s">
-        <v>690</v>
-      </c>
       <c r="AC50" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AD50" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" ht="31">
       <c r="A51" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C51" s="1">
         <v>2015</v>
@@ -16544,175 +16544,175 @@
         <v>2018</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I51" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="K51" s="1">
         <v>2</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AD51" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AE51" s="2"/>
     </row>
-    <row r="52" spans="1:32" s="12" customFormat="1" ht="123" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" s="12" customFormat="1" ht="123">
       <c r="A52" s="35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C52" s="12">
         <v>2015</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L52" s="18"/>
       <c r="T52" s="12" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="U52" s="12" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AD52" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AE52" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF52" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" ht="30">
+      <c r="A53" s="33" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="53" spans="1:32" ht="30" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
+      <c r="B53" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="C53" s="3">
         <v>2015</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G53" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="G53" s="20" t="s">
-        <v>378</v>
-      </c>
       <c r="H53" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="Y53" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AD53" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:32" s="12" customFormat="1" ht="31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" s="12" customFormat="1" ht="31">
       <c r="A54" s="35" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C54" s="12">
         <v>2015</v>
@@ -16721,48 +16721,48 @@
         <v>2015</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L54" s="18"/>
       <c r="S54" s="12" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="Y54" s="31"/>
       <c r="AA54" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="AB54" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="AC54" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="AB54" s="12" t="s">
-        <v>700</v>
-      </c>
-      <c r="AC54" s="12" t="s">
-        <v>701</v>
-      </c>
       <c r="AD54" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AE54" s="13"/>
       <c r="AF54" s="13" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" ht="30">
       <c r="A55" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C55" s="1">
         <v>2015</v>
@@ -16771,116 +16771,116 @@
         <v>2017</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Y55" s="28"/>
       <c r="AB55" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AD55" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AE55" s="2"/>
     </row>
-    <row r="56" spans="1:32" ht="62" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" ht="62">
       <c r="A56" s="33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C56" s="1">
         <v>2016</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K56" s="1">
         <v>2</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U56" s="28" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AD56" s="28"/>
       <c r="AE56" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF56" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AF56" s="2" t="s">
-        <v>161</v>
-      </c>
     </row>
-    <row r="57" spans="1:32" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" s="12" customFormat="1" ht="48">
       <c r="A57" s="35" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>22</v>
@@ -16892,53 +16892,53 @@
         <v>2017</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L57" s="18"/>
       <c r="S57" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="U57" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="W57" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA57" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="U57" s="12" t="s">
+      <c r="AB57" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="W57" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA57" s="12" t="s">
-        <v>709</v>
-      </c>
-      <c r="AB57" s="12" t="s">
-        <v>710</v>
-      </c>
       <c r="AC57" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AD57" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE57" s="31"/>
       <c r="AF57" s="13" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="32" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" ht="32">
       <c r="A58" s="34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C58" s="2">
         <v>2016</v>
@@ -16947,63 +16947,63 @@
         <v>2018</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>714</v>
       </c>
       <c r="K58" s="1">
         <v>2</v>
       </c>
       <c r="L58" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA58" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="AB58" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="M58" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="AA58" s="1" t="s">
+      <c r="AC58" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="AB58" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="AC58" s="1" t="s">
-        <v>718</v>
-      </c>
       <c r="AD58" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AE58" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" ht="29">
       <c r="A59" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C59" s="1">
         <v>2017</v>
@@ -17012,72 +17012,72 @@
         <v>2017</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I59" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AA59" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="L59" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U59" s="1" t="s">
+      <c r="AB59" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="W59" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="X59" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="AA59" s="1" t="s">
+      <c r="AC59" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="AB59" s="1" t="s">
+      <c r="AD59" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE59" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF59" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="AC59" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="AD59" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE59" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="AF59" s="2" t="s">
-        <v>724</v>
-      </c>
     </row>
-    <row r="60" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" ht="31">
       <c r="A60" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="C60" s="1">
         <v>2017</v>
@@ -17086,61 +17086,61 @@
         <v>2018</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K60" s="1">
         <v>2</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AD60" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AE60" s="28"/>
       <c r="AF60" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="108.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" ht="108.5">
       <c r="A61" s="34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C61" s="1">
         <v>2017</v>
@@ -17149,67 +17149,67 @@
         <v>2018</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F61" s="28" t="s">
+        <v>725</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L61" s="14" t="s">
         <v>727</v>
       </c>
-      <c r="G61" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="J61" s="1" t="s">
+      <c r="M61" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U61" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="V61" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="W61" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="AB61" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="AC61" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="AD61" s="28" t="s">
         <v>227</v>
-      </c>
-      <c r="L61" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U61" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="X61" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="AB61" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="AC61" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="AD61" s="28" t="s">
-        <v>228</v>
       </c>
       <c r="AE61" s="28"/>
       <c r="AF61" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:32" ht="46.5">
       <c r="A62" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C62" s="1">
         <v>2018</v>
@@ -17218,118 +17218,118 @@
         <v>2019</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J62" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="W62" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="K62" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L62" s="14" t="s">
-        <v>662</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U62" s="1" t="s">
+      <c r="X62" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y62" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA62" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="W62" s="1" t="s">
+      <c r="AB62" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="X62" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="Y62" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="AA62" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="AB62" s="1" t="s">
-        <v>739</v>
-      </c>
       <c r="AC62" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AD62" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE62" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" s="12" customFormat="1" ht="108">
+      <c r="A63" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32" s="12" customFormat="1" ht="108" x14ac:dyDescent="0.3">
-      <c r="A63" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="C63" s="12">
         <v>2018</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L63" s="18"/>
       <c r="S63" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="U63" s="32" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="V63" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W63" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD63" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AE63" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF63" s="13"/>
     </row>
-    <row r="64" spans="1:32" s="12" customFormat="1" ht="31" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32" s="12" customFormat="1" ht="31">
       <c r="A64" s="35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C64" s="12">
         <v>2018</v>
@@ -17338,114 +17338,114 @@
         <v>2019</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L64" s="18"/>
       <c r="S64" s="12" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U64" s="31" t="s">
+        <v>740</v>
+      </c>
+      <c r="AA64" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="AB64" s="12" t="s">
         <v>742</v>
       </c>
-      <c r="AA64" s="12" t="s">
+      <c r="AC64" s="12" t="s">
         <v>743</v>
       </c>
-      <c r="AB64" s="12" t="s">
-        <v>744</v>
-      </c>
-      <c r="AC64" s="12" t="s">
-        <v>745</v>
-      </c>
       <c r="AD64" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE64" s="31"/>
       <c r="AF64" s="36" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="79" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:32" ht="79">
       <c r="A65" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C65" s="3">
         <v>2018</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L65" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y65" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA65" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="W65" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="X65" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="Y65" s="1" t="s">
+      <c r="AD65" s="28" t="s">
         <v>215</v>
-      </c>
-      <c r="AA65" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="AD65" s="28" t="s">
-        <v>216</v>
       </c>
       <c r="AE65" s="28"/>
     </row>
-    <row r="66" spans="1:32" ht="29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" ht="29">
       <c r="A66" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C66" s="2">
         <v>2018</v>
@@ -17454,58 +17454,58 @@
         <v>2018</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F66" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L66" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB66" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="AC66" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="AD66" s="28" t="s">
         <v>220</v>
-      </c>
-      <c r="G66" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L66" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="AB66" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="AC66" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="AD66" s="28" t="s">
-        <v>221</v>
       </c>
       <c r="AE66" s="28"/>
     </row>
-    <row r="67" spans="1:32" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:32" ht="46.5">
       <c r="A67" s="34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C67" s="2">
         <v>2018</v>
@@ -17514,58 +17514,58 @@
         <v>2018</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J67" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AB67" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="L67" s="16" t="s">
-        <v>752</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="AB67" s="1" t="s">
-        <v>753</v>
-      </c>
       <c r="AC67" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AD67" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE67" s="28"/>
     </row>
-    <row r="68" spans="1:32" ht="109" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:32" ht="109">
       <c r="A68" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C68" s="1">
         <v>2019</v>
@@ -17574,257 +17574,257 @@
         <v>2019</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="J68" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="U68" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="K68" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="L68" s="15" t="s">
+      <c r="V68" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="Z68" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA68" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="M68" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="T68" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="U68" s="2" t="s">
+      <c r="AB68" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="W68" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="X68" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="Z68" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA68" s="1" t="s">
+      <c r="AC68" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="AD68" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE68" s="28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" ht="31">
+      <c r="A69" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="AB68" s="1" t="s">
+      <c r="J69" s="37" t="s">
+        <v>820</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L69" s="14" t="s">
         <v>758</v>
       </c>
-      <c r="AC68" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="AD68" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="AE68" s="28" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:32" ht="31" x14ac:dyDescent="0.3">
-      <c r="A69" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="J69" s="37" t="s">
-        <v>822</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="L69" s="14" t="s">
-        <v>760</v>
-      </c>
       <c r="M69" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="W69" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Y69" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AD69" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AE69" s="2"/>
     </row>
-    <row r="70" spans="1:32" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:32" ht="50" customHeight="1">
       <c r="A70" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="K70" s="1">
         <v>2</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>98</v>
+        <v>823</v>
       </c>
       <c r="Z70" s="3"/>
       <c r="AD70" s="28" t="s">
         <v>96</v>
       </c>
       <c r="AF70" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:32" ht="31">
       <c r="A71" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C71" s="1">
         <v>2009</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K71" s="1">
         <v>2</v>
       </c>
       <c r="L71" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U71" s="28" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AD71" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE71" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="AE71" s="6" t="s">
-        <v>286</v>
-      </c>
     </row>
-    <row r="72" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:32" ht="31">
       <c r="A72" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C72" s="1">
         <v>2013</v>
@@ -17833,63 +17833,63 @@
         <v>2018</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J72" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L72" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U72" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="V72" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AB72" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="AC72" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="AD72" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="L72" s="14" t="s">
-        <v>768</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U72" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="V72" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="W72" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="X72" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="AB72" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="AC72" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="AD72" s="6" t="s">
-        <v>304</v>
-      </c>
     </row>
-    <row r="73" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:32" ht="31">
       <c r="A73" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C73" s="1">
         <v>2014</v>
@@ -17898,60 +17898,60 @@
         <v>2014</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K73" s="1">
         <v>2</v>
       </c>
       <c r="L73" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AB73" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="AC73" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="AD73" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF73" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="AC73" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="AD73" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="AF73" s="2" t="s">
-        <v>773</v>
-      </c>
     </row>
-    <row r="74" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32" ht="31">
       <c r="A74" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C74" s="1">
         <v>2014</v>
@@ -17960,57 +17960,57 @@
         <v>2014</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="K74" s="1">
         <v>2</v>
       </c>
       <c r="L74" s="14" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AC74" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" ht="31">
       <c r="A75" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="C75" s="1">
         <v>2014</v>
@@ -18019,57 +18019,57 @@
         <v>2014</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F75" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G75" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="K75" s="1" t="s">
+      <c r="L75" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AB75" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="AC75" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="AD75" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="L75" s="14" t="s">
-        <v>662</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="V75" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="AB75" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="AC75" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="AD75" s="6" t="s">
-        <v>314</v>
-      </c>
     </row>
-    <row r="76" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:32" ht="31">
       <c r="A76" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="C76" s="1">
         <v>2015</v>
@@ -18078,66 +18078,66 @@
         <v>2016</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F76" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L76" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="U76" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA76" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="AB76" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC76" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="AD76" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" ht="32">
+      <c r="A77" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="G76" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="L76" s="14" t="s">
-        <v>776</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="U76" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="V76" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="W76" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="X76" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="AA76" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="AB76" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC76" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="AD76" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="77" spans="1:32" ht="32" x14ac:dyDescent="0.3">
-      <c r="A77" s="10" t="s">
-        <v>265</v>
-      </c>
       <c r="B77" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C77" s="1">
         <v>2015</v>
@@ -18146,69 +18146,69 @@
         <v>2015</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F77" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="G77" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L77" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="U77" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="G77" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K77" s="1" t="s">
+      <c r="V77" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA77" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB77" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="AC77" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AD77" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="L77" s="14" t="s">
-        <v>780</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="U77" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="V77" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="W77" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="X77" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="AA77" s="1" t="s">
+      <c r="AF77" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="AB77" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="AC77" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AD77" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="AF77" s="2" t="s">
-        <v>784</v>
-      </c>
     </row>
-    <row r="78" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:32" ht="31">
       <c r="A78" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C78" s="1">
         <v>2015</v>
@@ -18217,63 +18217,63 @@
         <v>2016</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K78" s="1">
         <v>1</v>
       </c>
       <c r="L78" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U78" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y78" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA78" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="AB78" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="M78" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U78" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="V78" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="Y78" s="1" t="s">
+      <c r="AC78" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="AD78" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="AA78" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="AB78" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="AC78" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="AD78" s="6" t="s">
-        <v>263</v>
-      </c>
     </row>
-    <row r="79" spans="1:32" s="12" customFormat="1" ht="46" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:32" s="12" customFormat="1" ht="46">
       <c r="A79" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>307</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>308</v>
       </c>
       <c r="C79" s="12">
         <v>2015</v>
@@ -18282,45 +18282,45 @@
         <v>2015</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L79" s="18"/>
       <c r="S79" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="U79" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="AB79" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC79" s="12" t="s">
         <v>788</v>
       </c>
-      <c r="U79" s="12" t="s">
-        <v>789</v>
-      </c>
-      <c r="AB79" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="AC79" s="12" t="s">
-        <v>790</v>
-      </c>
       <c r="AD79" s="26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AE79" s="26"/>
       <c r="AF79" s="13"/>
     </row>
-    <row r="80" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:32" ht="31">
       <c r="A80" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C80" s="1">
         <v>2015</v>
@@ -18329,60 +18329,60 @@
         <v>2015</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K80" s="1">
         <v>2</v>
       </c>
       <c r="L80" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="AD80" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:32" ht="31">
       <c r="A81" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C81" s="1">
         <v>2016</v>
@@ -18391,57 +18391,57 @@
         <v>2016</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L81" s="14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="AC81" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AD81" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="32" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:32" ht="32">
       <c r="A82" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="C82" s="1">
         <v>2016</v>
@@ -18450,72 +18450,72 @@
         <v>2017</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="K82" s="1">
         <v>2</v>
       </c>
       <c r="L82" s="14" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="M82" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N82" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="N82" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="Q82" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="U82" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="W82" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="X82" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA82" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="AB82" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="U82" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="V82" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="W82" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="X82" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="AA82" s="1" t="s">
+      <c r="AC82" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="AB82" s="1" t="s">
+      <c r="AD82" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF82" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="AC82" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="AD82" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="AF82" s="2" t="s">
-        <v>798</v>
-      </c>
     </row>
-    <row r="83" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:32" ht="31">
       <c r="A83" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="C83" s="1">
         <v>2016</v>
@@ -18524,60 +18524,60 @@
         <v>2017</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K83" s="1">
         <v>3</v>
       </c>
       <c r="L83" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AB83" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="AC83" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="M83" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U83" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="V83" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="AB83" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="AC83" s="1" t="s">
-        <v>801</v>
-      </c>
       <c r="AD83" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE83" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="AE83" s="6" t="s">
-        <v>318</v>
-      </c>
     </row>
-    <row r="84" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:32" ht="31">
       <c r="A84" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C84" s="1">
         <v>2017</v>
@@ -18586,57 +18586,57 @@
         <v>2017</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K84" s="1">
         <v>2</v>
       </c>
       <c r="L84" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U84" s="28" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:32" ht="31">
       <c r="A85" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="C85" s="1">
         <v>2017</v>
@@ -18645,66 +18645,66 @@
         <v>2017</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K85" s="1">
         <v>2</v>
       </c>
       <c r="L85" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="U85" s="28" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AA85" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AD85" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:32" ht="31">
       <c r="A86" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="C86" s="1">
         <v>2018</v>
@@ -18713,57 +18713,57 @@
         <v>2018</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="K86" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G86" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="K86" s="1" t="s">
+      <c r="L86" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U86" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="V86" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AB86" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="AC86" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="AD86" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="L86" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U86" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="V86" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="AB86" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="AC86" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="AD86" s="6" t="s">
-        <v>277</v>
-      </c>
     </row>
-    <row r="87" spans="1:32" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:32" ht="46.5">
       <c r="A87" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C87" s="1">
         <v>2018</v>
@@ -18772,60 +18772,60 @@
         <v>2018</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K87" s="1">
         <v>2</v>
       </c>
       <c r="L87" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AA87" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AD87" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="88" spans="1:32" ht="31" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:32" ht="31">
       <c r="A88" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="C88" s="1">
         <v>2018</v>
@@ -18834,63 +18834,63 @@
         <v>2019</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="K88" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G88" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="K88" s="1" t="s">
+      <c r="L88" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="U88" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="V88" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="W88" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB88" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="AC88" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="AD88" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="L88" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="U88" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="V88" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="W88" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="X88" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AB88" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="AC88" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="AD88" s="6" t="s">
+    </row>
+    <row r="89" spans="1:32" ht="31">
+      <c r="A89" s="10" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="89" spans="1:32" ht="31" x14ac:dyDescent="0.3">
-      <c r="A89" s="10" t="s">
+      <c r="B89" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="C89" s="1">
         <v>2018</v>
@@ -18899,49 +18899,49 @@
         <v>2018</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K89" s="1">
         <v>1</v>
       </c>
       <c r="L89" s="14" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AD89" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/data/tools.xlsx
+++ b/data/tools.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="700">
   <si>
     <t>Hexawise</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1483,29 +1483,6 @@
   </si>
   <si>
     <t>未知</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -10296,8 +10273,8 @@
   <dimension ref="A1:AF89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE36" sqref="AE36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -10342,7 +10319,7 @@
     <row r="1" spans="1:32" s="14" customFormat="1" ht="35" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="8" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -10352,14 +10329,14 @@
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="11"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="12" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
@@ -10367,7 +10344,7 @@
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
       <c r="U1" s="13" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="V1" s="13"/>
       <c r="W1" s="13"/>
@@ -10384,97 +10361,97 @@
     <row r="2" spans="1:32" s="8" customFormat="1" ht="35" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="K2" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="L2" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="M2" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="N2" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="O2" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="P2" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="Q2" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="R2" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="S2" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="T2" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="U2" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="V2" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="W2" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="X2" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="Y2" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="Z2" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="AA2" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="AB2" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="AC2" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="AD2" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="AE2" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AF2" s="8" t="s">
         <v>493</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="50" customHeight="1">
@@ -10509,37 +10486,37 @@
         <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>341</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="50" customHeight="1">
@@ -10568,70 +10545,70 @@
         <v>331</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>36</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>207</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="X4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="Z4" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="AD4" s="3" t="s">
         <v>190</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="50" customHeight="1">
@@ -10660,28 +10637,28 @@
         <v>334</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="K5" s="1">
         <v>2</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="50" customHeight="1">
@@ -10707,7 +10684,7 @@
         <v>331</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>320</v>
@@ -10716,28 +10693,28 @@
         <v>34</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AD6" s="1" t="s">
         <v>48</v>
@@ -10766,7 +10743,7 @@
         <v>321</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>334</v>
@@ -10778,37 +10755,37 @@
         <v>196</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="AD7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="50" customHeight="1">
@@ -10829,65 +10806,65 @@
         <v>320</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>331</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="K8" s="1">
         <v>2</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="AC8" s="5"/>
       <c r="AD8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="50" customHeight="1">
@@ -10901,7 +10878,7 @@
         <v>2002</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>326</v>
@@ -10913,40 +10890,40 @@
         <v>332</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>341</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="50" customHeight="1">
@@ -10964,16 +10941,16 @@
         <v>318</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>321</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>339</v>
@@ -10982,35 +10959,35 @@
         <v>2</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AC10" s="5"/>
       <c r="AD10" s="3" t="s">
         <v>72</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="50" customHeight="1">
@@ -11027,60 +11004,60 @@
         <v>317</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>321</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="K11" s="1">
         <v>2</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="50" customHeight="1">
@@ -11106,10 +11083,10 @@
         <v>321</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>339</v>
@@ -11118,38 +11095,38 @@
         <v>25</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>341</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="AD12" s="3" t="s">
         <v>195</v>
       </c>
       <c r="AE12" s="5"/>
       <c r="AF12" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="50" customHeight="1">
@@ -11175,7 +11152,7 @@
         <v>331</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>320</v>
@@ -11184,25 +11161,25 @@
         <v>198</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AD13" s="1" t="s">
         <v>52</v>
@@ -11219,7 +11196,7 @@
         <v>2005</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -11231,31 +11208,31 @@
         <v>333</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>320</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>145</v>
@@ -11297,43 +11274,43 @@
         <v>57</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>341</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AD15" s="3" t="s">
         <v>147</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AF15" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="50" customHeight="1">
@@ -11362,37 +11339,37 @@
         <v>334</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="AD16" s="5" t="s">
         <v>62</v>
@@ -11428,40 +11405,40 @@
         <v>334</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>27</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>341</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="AD17" s="1" t="s">
         <v>42</v>
@@ -11490,10 +11467,10 @@
         <v>321</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>339</v>
@@ -11502,46 +11479,46 @@
         <v>30</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AD18" s="3" t="s">
         <v>64</v>
       </c>
       <c r="AE18" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="50" customHeight="1">
@@ -11567,7 +11544,7 @@
         <v>330</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>340</v>
@@ -11576,28 +11553,28 @@
         <v>2</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="50" customHeight="1">
@@ -11623,10 +11600,10 @@
         <v>321</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>340</v>
@@ -11635,46 +11612,46 @@
         <v>28</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AD20" s="3" t="s">
         <v>65</v>
       </c>
       <c r="AE20" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="50" customHeight="1">
@@ -11700,34 +11677,34 @@
         <v>320</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>339</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="50" customHeight="1">
@@ -11756,34 +11733,34 @@
         <v>334</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="79">
@@ -11812,58 +11789,58 @@
         <v>331</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>98</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>142</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="AD23" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="50" customHeight="1">
@@ -11886,46 +11863,46 @@
         <v>323</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AD24" s="3" t="s">
         <v>66</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="50" customHeight="1">
@@ -11954,7 +11931,7 @@
         <v>330</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>320</v>
@@ -11963,49 +11940,49 @@
         <v>29</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W25" s="1" t="s">
         <v>341</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>197</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="AD25" s="1" t="s">
         <v>54</v>
@@ -12037,37 +12014,37 @@
         <v>320</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W26" s="1" t="s">
         <v>341</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="62">
@@ -12093,46 +12070,46 @@
         <v>324</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>338</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>136</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AD27" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="31">
@@ -12158,10 +12135,10 @@
         <v>321</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>340</v>
@@ -12170,28 +12147,28 @@
         <v>2</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AD28" s="1" t="s">
         <v>94</v>
@@ -12220,7 +12197,7 @@
         <v>331</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>340</v>
@@ -12229,25 +12206,25 @@
         <v>23</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AD29" s="1" t="s">
         <v>37</v>
@@ -12273,43 +12250,43 @@
         <v>321</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>334</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="K30" s="1">
         <v>2</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="AD30" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="50" customHeight="1">
@@ -12332,10 +12309,10 @@
         <v>321</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>339</v>
@@ -12344,31 +12321,31 @@
         <v>2</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AB31" s="5" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="AD31" s="3" t="s">
         <v>68</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="47">
@@ -12394,10 +12371,10 @@
         <v>321</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>320</v>
@@ -12406,40 +12383,40 @@
         <v>103</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>116</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AD32" s="3" t="s">
         <v>117</v>
@@ -12462,13 +12439,13 @@
         <v>318</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>324</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>338</v>
@@ -12480,28 +12457,28 @@
         <v>137</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AD33" s="3" t="s">
         <v>268</v>
@@ -12533,37 +12510,37 @@
         <v>334</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:32" s="5" customFormat="1" ht="50" customHeight="1">
@@ -12577,7 +12554,7 @@
         <v>2011</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>9</v>
@@ -12589,17 +12566,17 @@
         <v>331</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L35" s="18"/>
       <c r="O35" s="5" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="Y35" s="5" t="s">
         <v>38</v>
       </c>
       <c r="AE35" s="5" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="248">
@@ -12625,57 +12602,57 @@
         <v>331</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="AD36" s="3" t="s">
         <v>134</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="108">
       <c r="A37" s="15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>77</v>
@@ -12696,10 +12673,10 @@
         <v>321</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>339</v>
@@ -12708,55 +12685,55 @@
         <v>79</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>130</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AD37" s="1" t="s">
         <v>81</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AF37" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="31">
@@ -12782,43 +12759,43 @@
         <v>321</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>338</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AB38" s="1" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="AD38" s="1" t="s">
         <v>88</v>
@@ -12847,52 +12824,52 @@
         <v>330</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>86</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W39" s="1" t="s">
         <v>341</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="AD39" s="3" t="s">
         <v>138</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="62">
@@ -12927,34 +12904,34 @@
         <v>107</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W40" s="1" t="s">
         <v>341</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AD40" s="1" t="s">
         <v>276</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AF40" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="124">
@@ -12983,66 +12960,66 @@
         <v>333</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>57</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>143</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AD41" s="3" t="s">
         <v>150</v>
       </c>
       <c r="AE41" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="AF41" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:32" s="5" customFormat="1" ht="93">
       <c r="A42" s="15" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>110</v>
@@ -13063,21 +13040,21 @@
         <v>321</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="J42" s="6"/>
       <c r="L42" s="18"/>
       <c r="O42" s="5" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="V42" s="5" t="s">
         <v>76</v>
@@ -13086,22 +13063,22 @@
         <v>80</v>
       </c>
       <c r="Y42" s="5" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AB42" s="5" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="AC42" s="5" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AD42" s="6" t="s">
         <v>151</v>
       </c>
       <c r="AE42" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AF42" s="5" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="62">
@@ -13127,49 +13104,49 @@
         <v>321</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>103</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>104</v>
@@ -13178,13 +13155,13 @@
         <v>200</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AD43" s="3" t="s">
         <v>277</v>
@@ -13192,7 +13169,7 @@
     </row>
     <row r="44" spans="1:32" ht="62">
       <c r="A44" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>284</v>
@@ -13201,7 +13178,7 @@
         <v>2013</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>320</v>
@@ -13213,7 +13190,7 @@
         <v>330</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>340</v>
@@ -13222,28 +13199,28 @@
         <v>2</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="31">
@@ -13269,10 +13246,10 @@
         <v>321</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>339</v>
@@ -13281,25 +13258,25 @@
         <v>2</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AD45" s="1" t="s">
         <v>109</v>
@@ -13316,7 +13293,7 @@
         <v>2013</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>320</v>
@@ -13328,43 +13305,43 @@
         <v>320</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="U46" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AD46" s="3"/>
       <c r="AE46" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:32" s="5" customFormat="1" ht="62">
       <c r="A47" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>139</v>
@@ -13385,14 +13362,14 @@
         <v>331</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L47" s="18"/>
       <c r="S47" s="5" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="U47" s="5" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="V47" s="5" t="s">
         <v>155</v>
@@ -13401,19 +13378,19 @@
         <v>99</v>
       </c>
       <c r="AA47" s="5" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="AD47" s="6"/>
       <c r="AE47" s="5" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AF47" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="122">
       <c r="A48" s="15" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>113</v>
@@ -13437,66 +13414,66 @@
         <v>332</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>192</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Z48" s="1" t="s">
         <v>114</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="AB48" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AD48" s="3" t="s">
         <v>115</v>
       </c>
       <c r="AE48" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:32" s="5" customFormat="1" ht="58">
       <c r="A49" s="6" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>278</v>
@@ -13521,14 +13498,14 @@
       </c>
       <c r="L49" s="18"/>
       <c r="P49" s="5" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="AD49" s="6"/>
       <c r="AE49" s="6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="AF49" s="5" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="31">
@@ -13566,40 +13543,40 @@
         <v>201</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AD50" s="3" t="s">
         <v>156</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="31">
@@ -13625,7 +13602,7 @@
         <v>324</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>338</v>
@@ -13637,31 +13614,31 @@
         <v>2</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Z51" s="1" t="s">
         <v>141</v>
       </c>
       <c r="AB51" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AD51" s="3" t="s">
         <v>120</v>
@@ -13669,7 +13646,7 @@
     </row>
     <row r="52" spans="1:32" s="5" customFormat="1" ht="123">
       <c r="A52" s="15" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>121</v>
@@ -13687,23 +13664,23 @@
         <v>321</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>335</v>
       </c>
       <c r="L52" s="18"/>
       <c r="T52" s="5" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="U52" s="5" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="AD52" s="6" t="s">
         <v>202</v>
       </c>
       <c r="AE52" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="AF52" s="5" t="s">
         <v>122</v>
@@ -13732,7 +13709,7 @@
         <v>330</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>320</v>
@@ -13741,31 +13718,31 @@
         <v>79</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Y53" s="3" t="s">
         <v>144</v>
@@ -13779,7 +13756,7 @@
     </row>
     <row r="54" spans="1:32" s="5" customFormat="1" ht="31">
       <c r="A54" s="15" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>287</v>
@@ -13800,30 +13777,30 @@
         <v>321</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L54" s="18"/>
       <c r="S54" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="Y54" s="6"/>
       <c r="AA54" s="5" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AB54" s="5" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AC54" s="5" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AD54" s="6" t="s">
         <v>175</v>
       </c>
       <c r="AF54" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="30">
@@ -13849,38 +13826,38 @@
         <v>322</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>334</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>186</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Y55" s="3"/>
       <c r="AB55" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="AC55" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="AD55" s="3" t="s">
         <v>187</v>
@@ -13897,10 +13874,10 @@
         <v>2016</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>320</v>
@@ -13909,7 +13886,7 @@
         <v>320</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>340</v>
@@ -13918,37 +13895,37 @@
         <v>2</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="AF56" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="57" spans="1:32" s="5" customFormat="1" ht="48">
       <c r="A57" s="15" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>18</v>
@@ -13969,36 +13946,36 @@
         <v>321</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I57" s="5" t="s">
         <v>337</v>
       </c>
       <c r="L57" s="18"/>
       <c r="S57" s="5" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="U57" s="5" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="W57" s="5" t="s">
         <v>99</v>
       </c>
       <c r="AA57" s="5" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AB57" s="5" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="AC57" s="5" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="AD57" s="6" t="s">
         <v>154</v>
       </c>
       <c r="AE57" s="6"/>
       <c r="AF57" s="5" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="58">
@@ -14024,46 +14001,46 @@
         <v>322</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="K58" s="1">
         <v>2</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="AD58" s="3" t="s">
         <v>163</v>
       </c>
       <c r="AE58" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="58">
@@ -14089,55 +14066,55 @@
         <v>321</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>339</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AA59" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="AB59" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="AC59" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AD59" s="3" t="s">
         <v>159</v>
       </c>
       <c r="AE59" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="31">
@@ -14163,44 +14140,44 @@
         <v>321</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>334</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K60" s="1">
         <v>2</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AD60" s="3" t="s">
         <v>181</v>
       </c>
       <c r="AE60" s="3"/>
       <c r="AF60" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="108.5">
@@ -14220,56 +14197,56 @@
         <v>318</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>320</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>184</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U61" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W61" s="1" t="s">
         <v>341</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AB61" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AD61" s="3" t="s">
         <v>185</v>
       </c>
       <c r="AE61" s="3"/>
       <c r="AF61" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="58">
@@ -14295,60 +14272,60 @@
         <v>321</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>128</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AD62" s="3" t="s">
         <v>161</v>
       </c>
       <c r="AE62" s="3" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="63" spans="1:32" s="5" customFormat="1" ht="108">
       <c r="A63" s="15" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>131</v>
@@ -14360,23 +14337,23 @@
         <v>318</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>321</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L63" s="18"/>
       <c r="S63" s="5" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="U63" s="6" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="V63" s="5" t="s">
         <v>129</v>
@@ -14388,12 +14365,12 @@
         <v>153</v>
       </c>
       <c r="AE63" s="6" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64" spans="1:32" s="5" customFormat="1" ht="31">
       <c r="A64" s="15" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>167</v>
@@ -14408,39 +14385,39 @@
         <v>318</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>321</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L64" s="18"/>
       <c r="S64" s="5" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="U64" s="6" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="AA64" s="5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="AB64" s="5" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AD64" s="6" t="s">
         <v>168</v>
       </c>
       <c r="AE64" s="6"/>
       <c r="AF64" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="79">
@@ -14457,16 +14434,16 @@
         <v>318</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>321</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>340</v>
@@ -14475,31 +14452,31 @@
         <v>170</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W65" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Y65" s="1" t="s">
         <v>172</v>
       </c>
       <c r="AA65" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="AD65" s="3" t="s">
         <v>173</v>
@@ -14529,37 +14506,37 @@
         <v>321</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>103</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AD66" s="3" t="s">
         <v>178</v>
@@ -14589,37 +14566,37 @@
         <v>321</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="AC67" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="AD67" s="3" t="s">
         <v>183</v>
@@ -14649,61 +14626,61 @@
         <v>321</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>193</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W68" s="1" t="s">
         <v>341</v>
       </c>
       <c r="X68" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Z68" s="1" t="s">
         <v>166</v>
       </c>
       <c r="AA68" s="1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="AC68" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AD68" s="3" t="s">
         <v>269</v>
       </c>
       <c r="AE68" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="31">
@@ -14726,34 +14703,34 @@
         <v>330</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="J69" s="19" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>133</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W69" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Y69" s="1" t="s">
         <v>142</v>
@@ -14782,46 +14759,46 @@
         <v>331</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="K70" s="1">
         <v>2</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AD70" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AF70" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="31">
@@ -14844,7 +14821,7 @@
         <v>321</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>334</v>
@@ -14856,31 +14833,31 @@
         <v>2</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U71" s="3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AD71" s="1" t="s">
         <v>232</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="72" spans="1:32" ht="31">
@@ -14906,43 +14883,43 @@
         <v>321</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>249</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U72" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W72" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="X72" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AB72" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="AD72" s="1" t="s">
         <v>250</v>
@@ -14983,31 +14960,31 @@
         <v>2</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U73" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AD73" s="1" t="s">
         <v>229</v>
       </c>
       <c r="AF73" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="31">
@@ -15027,43 +15004,43 @@
         <v>318</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>321</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="K74" s="1">
         <v>2</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U74" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="V74" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="AC74" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AD74" s="1" t="s">
         <v>240</v>
@@ -15092,37 +15069,37 @@
         <v>321</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>259</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U75" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AB75" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="AC75" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AD75" s="1" t="s">
         <v>260</v>
@@ -15151,10 +15128,10 @@
         <v>321</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>339</v>
@@ -15163,34 +15140,34 @@
         <v>216</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="U76" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W76" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="AD76" s="1" t="s">
         <v>217</v>
@@ -15213,7 +15190,7 @@
         <v>318</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>321</v>
@@ -15222,7 +15199,7 @@
         <v>330</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>339</v>
@@ -15231,40 +15208,40 @@
         <v>218</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W77" s="1" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AA77" s="1" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="AB77" s="1" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="AD77" s="1" t="s">
         <v>219</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="78" spans="1:32" ht="31">
@@ -15296,37 +15273,37 @@
         <v>334</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K78" s="1">
         <v>1</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U78" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Y78" s="1" t="s">
         <v>210</v>
       </c>
       <c r="AA78" s="1" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="AB78" s="1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="AC78" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AD78" s="1" t="s">
         <v>211</v>
@@ -15355,23 +15332,23 @@
         <v>321</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L79" s="18"/>
       <c r="S79" s="5" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="U79" s="5" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="AB79" s="5" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="AC79" s="5" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AD79" s="5" t="s">
         <v>255</v>
@@ -15400,40 +15377,40 @@
         <v>321</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="K80" s="1">
         <v>2</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="U80" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V80" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AB80" s="1" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="AD80" s="1" t="s">
         <v>266</v>
@@ -15468,31 +15445,31 @@
         <v>334</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>249</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="AB81" s="1" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="AC81" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AD81" s="1" t="s">
         <v>252</v>
@@ -15515,7 +15492,7 @@
         <v>318</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>321</v>
@@ -15524,52 +15501,52 @@
         <v>330</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="K82" s="1">
         <v>2</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AA82" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="AC82" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="AD82" s="1" t="s">
         <v>235</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="62">
@@ -15589,13 +15566,13 @@
         <v>318</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>321</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>334</v>
@@ -15607,31 +15584,31 @@
         <v>3</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="AD83" s="1" t="s">
         <v>263</v>
       </c>
       <c r="AE83" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="84" spans="1:32" ht="31">
@@ -15657,10 +15634,10 @@
         <v>321</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>339</v>
@@ -15669,25 +15646,25 @@
         <v>2</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AD84" s="1" t="s">
         <v>237</v>
@@ -15713,13 +15690,13 @@
         <v>227</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>339</v>
@@ -15728,34 +15705,34 @@
         <v>2</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="U85" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AA85" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="AD85" s="1" t="s">
         <v>228</v>
@@ -15784,37 +15761,37 @@
         <v>321</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>334</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U86" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AD86" s="1" t="s">
         <v>224</v>
@@ -15837,7 +15814,7 @@
         <v>318</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>321</v>
@@ -15846,7 +15823,7 @@
         <v>330</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>339</v>
@@ -15855,28 +15832,28 @@
         <v>2</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AA87" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AD87" s="1" t="s">
         <v>238</v>
@@ -15908,40 +15885,40 @@
         <v>332</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>244</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="W88" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="X88" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AB88" s="1" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="AC88" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AD88" s="1" t="s">
         <v>245</v>
@@ -15964,7 +15941,7 @@
         <v>318</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>321</v>
@@ -15976,31 +15953,31 @@
         <v>334</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K89" s="1">
         <v>1</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AB89" s="1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="AC89" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AD89" s="1" t="s">
         <v>248</v>
